--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3015074.670901255</v>
+        <v>3012561.92484144</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>276321.4024904679</v>
+        <v>276321.4024904668</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.056421089298877</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.056421089298878</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E3" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.056421089298877</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,58 +987,58 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H6" t="n">
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,58 +1054,58 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="T7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,14 +1178,14 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1336,7 +1336,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="W10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>350.3153918757999</v>
       </c>
       <c r="F11" t="n">
-        <v>375.2610675452495</v>
+        <v>375.2610675452496</v>
       </c>
       <c r="G11" t="n">
         <v>378.5496635761663</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.10006758744237</v>
+        <v>60.32073465740692</v>
       </c>
       <c r="T11" t="n">
         <v>168.9888572548454</v>
       </c>
       <c r="U11" t="n">
-        <v>219.319627051974</v>
+        <v>219.3196270519741</v>
       </c>
       <c r="V11" t="n">
         <v>296.137280273673</v>
       </c>
       <c r="W11" t="n">
-        <v>317.6259905209511</v>
+        <v>317.6259905209512</v>
       </c>
       <c r="X11" t="n">
-        <v>338.1161224820071</v>
+        <v>338.1161224820072</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.6229604595917</v>
+        <v>354.4022933896281</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>85.68469803160201</v>
       </c>
       <c r="I12" t="n">
-        <v>4.870537262297262</v>
+        <v>4.870537262297248</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>148.2170019854754</v>
       </c>
       <c r="C13" t="n">
-        <v>135.6318429021659</v>
+        <v>135.631842902166</v>
       </c>
       <c r="D13" t="n">
         <v>117.0004948217505</v>
@@ -1576,7 +1576,7 @@
         <v>42.04744418592466</v>
       </c>
       <c r="S13" t="n">
-        <v>152.2357145507816</v>
+        <v>152.2357145507815</v>
       </c>
       <c r="T13" t="n">
         <v>186.4829453548386</v>
@@ -1619,10 +1619,10 @@
         <v>375.2610675452495</v>
       </c>
       <c r="G14" t="n">
-        <v>378.5496635761663</v>
+        <v>378.5496635761662</v>
       </c>
       <c r="H14" t="n">
-        <v>255.0186338263909</v>
+        <v>255.0186338263927</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.3207346574069</v>
+        <v>60.32073465740689</v>
       </c>
       <c r="T14" t="n">
         <v>168.9888572548454</v>
@@ -1704,7 +1704,7 @@
         <v>85.68469803160201</v>
       </c>
       <c r="I15" t="n">
-        <v>4.870537262297262</v>
+        <v>4.870537262297248</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>114.8189844501073</v>
       </c>
       <c r="F16" t="n">
-        <v>113.8060698264693</v>
+        <v>113.8060698264703</v>
       </c>
       <c r="G16" t="n">
         <v>134.0712282971715</v>
@@ -1844,7 +1844,7 @@
         <v>351.1188634670187</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6579135745457</v>
+        <v>333.4372465045814</v>
       </c>
       <c r="D17" t="n">
         <v>323.0680634242211</v>
@@ -1856,10 +1856,10 @@
         <v>375.2610675452495</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5496635761663</v>
+        <v>378.5496635761662</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2393008963563</v>
+        <v>255.2393008963562</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32073465740694</v>
+        <v>60.32073465740689</v>
       </c>
       <c r="T17" t="n">
         <v>168.9888572548454</v>
       </c>
       <c r="U17" t="n">
-        <v>219.0989599820081</v>
+        <v>219.319627051974</v>
       </c>
       <c r="V17" t="n">
         <v>296.137280273673</v>
@@ -1938,10 +1938,10 @@
         <v>134.5943935779627</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68469803160203</v>
+        <v>85.68469803160201</v>
       </c>
       <c r="I18" t="n">
-        <v>4.870537262297304</v>
+        <v>4.870537262297248</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>114.8189844501073</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8060698264693</v>
+        <v>113.8060698264694</v>
       </c>
       <c r="G19" t="n">
         <v>134.0712282971715</v>
@@ -2020,7 +2020,7 @@
         <v>110.1206682946215</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52469094132165</v>
+        <v>54.52469094132163</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04744418592469</v>
+        <v>42.04744418592464</v>
       </c>
       <c r="S19" t="n">
         <v>152.2357145507815</v>
@@ -2093,7 +2093,7 @@
         <v>375.2610675452495</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5496635761663</v>
+        <v>378.3289965062017</v>
       </c>
       <c r="H20" t="n">
         <v>255.2393008963563</v>
@@ -2132,7 +2132,7 @@
         <v>60.3207346574069</v>
       </c>
       <c r="T20" t="n">
-        <v>168.7681901848804</v>
+        <v>168.9888572548454</v>
       </c>
       <c r="U20" t="n">
         <v>219.319627051974</v>
@@ -2248,7 +2248,7 @@
         <v>114.8189844501073</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8060698264693</v>
+        <v>113.8060698264694</v>
       </c>
       <c r="G22" t="n">
         <v>134.0712282971715</v>
@@ -2257,7 +2257,7 @@
         <v>110.1206682946215</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52469094132162</v>
+        <v>54.52469094132164</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04744418592463</v>
+        <v>42.04744418592465</v>
       </c>
       <c r="S22" t="n">
         <v>152.2357145507815</v>
@@ -2324,16 +2324,16 @@
         <v>323.0680634242211</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3153918757999</v>
+        <v>350.0947248058343</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2610675452495</v>
+        <v>375.2610675452496</v>
       </c>
       <c r="G23" t="n">
         <v>378.5496635761663</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0186338263918</v>
+        <v>255.2393008963563</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.3207346574069</v>
+        <v>60.32073465740693</v>
       </c>
       <c r="T23" t="n">
         <v>168.9888572548454</v>
       </c>
       <c r="U23" t="n">
-        <v>219.319627051974</v>
+        <v>219.3196270519741</v>
       </c>
       <c r="V23" t="n">
         <v>296.137280273673</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6259905209511</v>
+        <v>317.6259905209512</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1161224820071</v>
+        <v>338.1161224820072</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6229604595917</v>
@@ -2476,7 +2476,7 @@
         <v>148.2170019854754</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6318429021659</v>
+        <v>135.631842902166</v>
       </c>
       <c r="D25" t="n">
         <v>117.0004948217505</v>
@@ -2485,16 +2485,16 @@
         <v>114.8189844501073</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8060698264693</v>
+        <v>113.8060698264694</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0712282971715</v>
+        <v>134.0712282971716</v>
       </c>
       <c r="H25" t="n">
         <v>110.1206682946215</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52469094132162</v>
+        <v>54.52469094132167</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04744418592465</v>
+        <v>42.04744418592468</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2357145507815</v>
+        <v>152.2357145507816</v>
       </c>
       <c r="T25" t="n">
         <v>186.4829453548386</v>
@@ -2558,13 +2558,13 @@
         <v>333.6579135745457</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0680634242211</v>
+        <v>322.8473963542565</v>
       </c>
       <c r="E26" t="n">
         <v>350.3153918757999</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2610675452496</v>
+        <v>375.2610675452495</v>
       </c>
       <c r="G26" t="n">
         <v>378.5496635761663</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32073465740693</v>
+        <v>60.3207346574069</v>
       </c>
       <c r="T26" t="n">
-        <v>168.7681901848804</v>
+        <v>168.9888572548454</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3196270519741</v>
+        <v>219.319627051974</v>
       </c>
       <c r="V26" t="n">
         <v>296.137280273673</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6259905209512</v>
+        <v>317.6259905209511</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1161224820072</v>
+        <v>338.1161224820071</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6229604595917</v>
@@ -2713,25 +2713,25 @@
         <v>148.2170019854754</v>
       </c>
       <c r="C28" t="n">
-        <v>135.631842902166</v>
+        <v>135.6318429021659</v>
       </c>
       <c r="D28" t="n">
         <v>117.0004948217505</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8189844501068</v>
+        <v>114.8189844501073</v>
       </c>
       <c r="F28" t="n">
         <v>113.8060698264694</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0712282971716</v>
+        <v>134.0712282971715</v>
       </c>
       <c r="H28" t="n">
         <v>110.1206682946215</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52469094132167</v>
+        <v>54.52469094132164</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04744418592468</v>
+        <v>42.04744418592465</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2357145507816</v>
+        <v>152.2357145507815</v>
       </c>
       <c r="T28" t="n">
         <v>186.4829453548386</v>
@@ -2792,7 +2792,7 @@
         <v>351.1188634670187</v>
       </c>
       <c r="C29" t="n">
-        <v>333.4372465045805</v>
+        <v>333.6579135745457</v>
       </c>
       <c r="D29" t="n">
         <v>323.0680634242211</v>
@@ -2801,7 +2801,7 @@
         <v>350.3153918757999</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2610675452495</v>
+        <v>375.0404004752842</v>
       </c>
       <c r="G29" t="n">
         <v>378.5496635761663</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32073465740687</v>
+        <v>60.3207346574069</v>
       </c>
       <c r="T29" t="n">
         <v>168.9888572548454</v>
@@ -2959,7 +2959,7 @@
         <v>114.8189844501073</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8060698264693</v>
+        <v>113.8060698264694</v>
       </c>
       <c r="G31" t="n">
         <v>134.0712282971715</v>
@@ -2968,7 +2968,7 @@
         <v>110.1206682946215</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52469094132162</v>
+        <v>54.52469094132164</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04744418592463</v>
+        <v>42.04744418592465</v>
       </c>
       <c r="S31" t="n">
         <v>152.2357145507815</v>
@@ -3044,7 +3044,7 @@
         <v>378.5496635761663</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2393008963563</v>
+        <v>255.0186338263918</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.10006758744148</v>
+        <v>60.3207346574069</v>
       </c>
       <c r="T32" t="n">
         <v>168.9888572548454</v>
@@ -3281,7 +3281,7 @@
         <v>378.5496635761663</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2393008963563</v>
+        <v>255.0186338263909</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.10006758744148</v>
+        <v>60.3207346574069</v>
       </c>
       <c r="T35" t="n">
         <v>168.9888572548454</v>
@@ -3518,7 +3518,7 @@
         <v>378.5496635761663</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2393008963563</v>
+        <v>255.0186338263909</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.10006758744148</v>
+        <v>60.3207346574069</v>
       </c>
       <c r="T38" t="n">
         <v>168.9888572548454</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.1646417726281</v>
+        <v>241.7991055876075</v>
       </c>
       <c r="H41" t="n">
-        <v>286.8542790928182</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>12.38945345740771</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>91.93571285386879</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>200.6038354513073</v>
       </c>
       <c r="U41" t="n">
-        <v>88.25433827577396</v>
+        <v>250.9346052484359</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.19533010200501</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.094707964816891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6862064936334</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.13966913778353</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>73.66242238238654</v>
       </c>
       <c r="S43" t="n">
         <v>183.8506927472434</v>
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>374.2103256939085</v>
       </c>
       <c r="G44" t="n">
-        <v>410.1646417726282</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.8542790928182</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>91.93571285386882</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.6038354513073</v>
       </c>
       <c r="U44" t="n">
-        <v>100.6437917331809</v>
+        <v>250.9346052484359</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>80.30563362400402</v>
+        <v>19.67713909376492</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.7356464910834</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.13966913778354</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C2" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E2" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F2" t="n">
-        <v>13.61318146843756</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G2" t="n">
-        <v>6.667680719234721</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
-        <v>6.667680719234721</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>7.357368943630567</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M2" t="n">
-        <v>14.16465422792427</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N2" t="n">
-        <v>20.69689768254954</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O2" t="n">
-        <v>27.50418296684324</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="P2" t="n">
-        <v>27.50418296684324</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.50418296684324</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>20.5586822176404</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>20.5586822176404</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>20.5586822176404</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>20.5586822176404</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W2" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X2" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.5586822176404</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5586822176404</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
-        <v>14.44108515774254</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>7.495584408539703</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>7.082327113962131</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M3" t="n">
-        <v>13.88961239825583</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N3" t="n">
-        <v>20.69689768254954</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O3" t="n">
-        <v>27.50418296684324</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
-        <v>27.50418296684324</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.50418296684324</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.5586822176404</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>20.5586822176404</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>20.5586822176404</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>20.5586822176404</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>20.5586822176404</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W3" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X3" t="n">
-        <v>20.5586822176404</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.5586822176404</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408539703</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5500836593368648</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943630567</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792427</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N4" t="n">
-        <v>20.69689768254954</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O4" t="n">
-        <v>27.50418296684324</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684324</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.5586822176404</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>13.61318146843756</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S4" t="n">
-        <v>13.61318146843756</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T4" t="n">
-        <v>13.61318146843756</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U4" t="n">
-        <v>13.61318146843756</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V4" t="n">
-        <v>13.61318146843756</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W4" t="n">
-        <v>13.61318146843756</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.61318146843756</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4565,19 +4565,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M5" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8896123982571</v>
+        <v>18.68131796949201</v>
       </c>
       <c r="O5" t="n">
         <v>20.69689768255142</v>
@@ -4589,13 +4589,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
         <v>20.55868221764227</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
@@ -4653,7 +4653,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
         <v>20.69689768255142</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D7" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E7" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M7" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O7" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="U7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
         <v>14.44108515774386</v>
@@ -4802,34 +4802,34 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>4.923777793205052</v>
       </c>
       <c r="L8" t="n">
-        <v>7.357368943631237</v>
+        <v>11.73106307749937</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
         <v>20.55868221764227</v>
@@ -4841,13 +4841,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
         <v>27.50418296684575</v>
@@ -4905,19 +4905,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
         <v>13.6131814684388</v>
@@ -4926,7 +4926,7 @@
         <v>6.667680719235332</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="10">
@@ -4963,19 +4963,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L10" t="n">
         <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N10" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O10" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
@@ -4984,22 +4984,22 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
         <v>0.5500836593369149</v>
@@ -5027,64 +5027,64 @@
         <v>1104.217125105353</v>
       </c>
       <c r="F11" t="n">
-        <v>725.1655417263131</v>
+        <v>725.1655417263132</v>
       </c>
       <c r="G11" t="n">
         <v>342.79214417463</v>
       </c>
       <c r="H11" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174487</v>
       </c>
       <c r="I11" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174487</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4677820306666</v>
+        <v>337.467782030667</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6280253389918</v>
+        <v>766.6280253389928</v>
       </c>
       <c r="L11" t="n">
-        <v>1335.941017965509</v>
+        <v>1335.941017965511</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.080854576513</v>
+        <v>2001.080854576515</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.597157505006</v>
+        <v>2681.597157505008</v>
       </c>
       <c r="O11" t="n">
-        <v>3310.854143942497</v>
+        <v>3310.854143942498</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.409422633032</v>
+        <v>3813.409422633034</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.634760904835</v>
+        <v>4142.634760904837</v>
       </c>
       <c r="R11" t="n">
-        <v>4248.733426087242</v>
+        <v>4248.733426087244</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.026287110028</v>
+        <v>4187.803391079762</v>
       </c>
       <c r="T11" t="n">
-        <v>4017.330471701093</v>
+        <v>4017.107575670827</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.795494880917</v>
+        <v>3795.572598850652</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.666928947914</v>
+        <v>3496.444032917649</v>
       </c>
       <c r="W11" t="n">
-        <v>3175.832595088367</v>
+        <v>3175.609699058102</v>
       </c>
       <c r="X11" t="n">
-        <v>2834.301158237855</v>
+        <v>2834.078262207589</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.096147672611</v>
+        <v>2476.096147672612</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5579879900289</v>
+        <v>941.5579879900291</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1049587089019</v>
+        <v>767.1049587089021</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1705490476506</v>
+        <v>618.1705490476509</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9330940421952</v>
+        <v>458.9330940421953</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3985360690802</v>
+        <v>312.3985360690803</v>
       </c>
       <c r="G12" t="n">
-        <v>176.4446031620471</v>
+        <v>176.4446031620472</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89440313012592</v>
+        <v>89.89440313012594</v>
       </c>
       <c r="I12" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174487</v>
       </c>
       <c r="J12" t="n">
-        <v>84.97466852174485</v>
+        <v>216.5399902196718</v>
       </c>
       <c r="K12" t="n">
-        <v>84.97466852174485</v>
+        <v>519.5609051424783</v>
       </c>
       <c r="L12" t="n">
-        <v>326.6522204857845</v>
+        <v>973.3324615148837</v>
       </c>
       <c r="M12" t="n">
-        <v>875.5390919230518</v>
+        <v>1357.157143933397</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.362010499151</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="O12" t="n">
-        <v>1959.737298927462</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="P12" t="n">
-        <v>2346.815044481919</v>
+        <v>2322.057808063954</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.647070140289</v>
+        <v>2530.889833722324</v>
       </c>
       <c r="R12" t="n">
         <v>2555.647070140289</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8271731011459</v>
+        <v>872.8271731011462</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8253115838066</v>
+        <v>735.8253115838069</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6429935820385</v>
+        <v>617.6429935820387</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6642214102129</v>
+        <v>501.6642214102131</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7085953228701</v>
+        <v>386.7085953228703</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2831121944142</v>
+        <v>251.2831121944141</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0501139170188</v>
+        <v>140.0501139170193</v>
       </c>
       <c r="I13" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174487</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1658757484555</v>
+        <v>185.1658757484558</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5128821675391</v>
+        <v>459.5128821675394</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3561344719315</v>
+        <v>857.3561344719319</v>
       </c>
       <c r="M13" t="n">
         <v>1285.513787652301</v>
@@ -5215,19 +5215,19 @@
         <v>2087.819222994815</v>
       </c>
       <c r="P13" t="n">
-        <v>2392.388108824283</v>
+        <v>2392.388108824284</v>
       </c>
       <c r="Q13" t="n">
-        <v>2529.449880140759</v>
+        <v>2529.44988014076</v>
       </c>
       <c r="R13" t="n">
         <v>2486.977714296391</v>
       </c>
       <c r="S13" t="n">
-        <v>2333.204265255197</v>
+        <v>2333.204265255198</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.837653785663</v>
+        <v>2144.837653785664</v>
       </c>
       <c r="U13" t="n">
         <v>1887.687819162943</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2121.207732988789</v>
+        <v>2121.207732988791</v>
       </c>
       <c r="C14" t="n">
-        <v>1784.179537458945</v>
+        <v>1784.179537458946</v>
       </c>
       <c r="D14" t="n">
-        <v>1457.848160262762</v>
+        <v>1457.848160262763</v>
       </c>
       <c r="E14" t="n">
-        <v>1103.994229075085</v>
+        <v>1103.994229075087</v>
       </c>
       <c r="F14" t="n">
-        <v>724.942645696045</v>
+        <v>724.9426456960468</v>
       </c>
       <c r="G14" t="n">
-        <v>342.5692481443619</v>
+        <v>342.5692481443638</v>
       </c>
       <c r="H14" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174487</v>
       </c>
       <c r="I14" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174487</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4677820306666</v>
+        <v>337.467782030667</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6280253389918</v>
+        <v>766.6280253389928</v>
       </c>
       <c r="L14" t="n">
-        <v>1335.941017965508</v>
+        <v>1335.941017965511</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.080854576512</v>
+        <v>2001.080854576515</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.597157505005</v>
+        <v>2681.597157505008</v>
       </c>
       <c r="O14" t="n">
-        <v>3310.854143942497</v>
+        <v>3310.854143942498</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.409422633032</v>
+        <v>3813.409422633033</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.634760904835</v>
+        <v>4142.634760904837</v>
       </c>
       <c r="R14" t="n">
-        <v>4248.733426087242</v>
+        <v>4248.733426087244</v>
       </c>
       <c r="S14" t="n">
-        <v>4187.80339107976</v>
+        <v>4187.803391079762</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.107575670826</v>
+        <v>4017.107575670827</v>
       </c>
       <c r="U14" t="n">
-        <v>3795.57259885065</v>
+        <v>3795.572598850652</v>
       </c>
       <c r="V14" t="n">
-        <v>3496.444032917647</v>
+        <v>3496.444032917649</v>
       </c>
       <c r="W14" t="n">
-        <v>3175.6096990581</v>
+        <v>3175.609699058102</v>
       </c>
       <c r="X14" t="n">
-        <v>2834.078262207588</v>
+        <v>2834.078262207589</v>
       </c>
       <c r="Y14" t="n">
-        <v>2475.873251642343</v>
+        <v>2475.873251642345</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5579879900289</v>
+        <v>941.5579879900291</v>
       </c>
       <c r="C15" t="n">
-        <v>767.1049587089019</v>
+        <v>767.1049587089021</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1705490476506</v>
+        <v>618.1705490476509</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9330940421952</v>
+        <v>458.9330940421953</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3985360690802</v>
+        <v>312.3985360690803</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4446031620471</v>
+        <v>176.4446031620472</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89440313012592</v>
+        <v>89.89440313012594</v>
       </c>
       <c r="I15" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174487</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5399902196717</v>
+        <v>216.5399902196718</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5609051424781</v>
+        <v>216.5399902196718</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3324615148833</v>
+        <v>535.4842461441541</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.219332952151</v>
+        <v>1084.371117581422</v>
       </c>
       <c r="N15" t="n">
-        <v>2100.04225152825</v>
+        <v>1662.194036157521</v>
       </c>
       <c r="O15" t="n">
-        <v>2555.647070140289</v>
+        <v>2168.569324585832</v>
       </c>
       <c r="P15" t="n">
         <v>2555.647070140289</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8271731011467</v>
+        <v>872.8271731011475</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8253115838074</v>
+        <v>735.8253115838082</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6429935820393</v>
+        <v>617.64299358204</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6642214102137</v>
+        <v>501.6642214102145</v>
       </c>
       <c r="F16" t="n">
-        <v>386.708595322871</v>
+        <v>386.7085953228708</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2831121944146</v>
+        <v>251.2831121944147</v>
       </c>
       <c r="H16" t="n">
         <v>140.0501139170192</v>
       </c>
       <c r="I16" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174487</v>
       </c>
       <c r="J16" t="n">
-        <v>185.165875748456</v>
+        <v>185.1658757484561</v>
       </c>
       <c r="K16" t="n">
         <v>459.5128821675398</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3561344719321</v>
+        <v>857.3561344719324</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.513787652301</v>
+        <v>1285.513787652302</v>
       </c>
       <c r="N16" t="n">
         <v>1709.66964142468</v>
@@ -5461,25 +5461,25 @@
         <v>2486.977714296392</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.204265255198</v>
+        <v>2333.204265255199</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.837653785664</v>
+        <v>2144.837653785665</v>
       </c>
       <c r="U16" t="n">
         <v>1887.687819162944</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.937652367624</v>
+        <v>1664.937652367625</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.454803741231</v>
+        <v>1407.454803741232</v>
       </c>
       <c r="X16" t="n">
         <v>1211.399574253782</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.541316520819</v>
+        <v>1022.54131652082</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.430629019057</v>
+        <v>2121.20773298879</v>
       </c>
       <c r="C17" t="n">
         <v>1784.402433489213</v>
@@ -5501,25 +5501,25 @@
         <v>1104.217125105353</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1655417263131</v>
+        <v>725.165541726313</v>
       </c>
       <c r="G17" t="n">
-        <v>342.79214417463</v>
+        <v>342.7921441746299</v>
       </c>
       <c r="H17" t="n">
-        <v>84.97466852174483</v>
+        <v>84.97466852174486</v>
       </c>
       <c r="I17" t="n">
-        <v>84.97466852174483</v>
+        <v>84.97466852174486</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4677820306679</v>
+        <v>337.4677820306665</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6280253389928</v>
+        <v>766.6280253389918</v>
       </c>
       <c r="L17" t="n">
-        <v>1335.941017965511</v>
+        <v>1335.94101796551</v>
       </c>
       <c r="M17" t="n">
         <v>2001.080854576514</v>
@@ -5531,34 +5531,34 @@
         <v>3310.854143942497</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.409422633031</v>
+        <v>3813.409422633033</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.634760904834</v>
+        <v>4142.634760904835</v>
       </c>
       <c r="R17" t="n">
-        <v>4248.733426087241</v>
+        <v>4248.733426087243</v>
       </c>
       <c r="S17" t="n">
-        <v>4187.803391079759</v>
+        <v>4187.803391079761</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.107575670825</v>
+        <v>4017.107575670826</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.795494880917</v>
+        <v>3795.572598850651</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.666928947914</v>
+        <v>3496.444032917648</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.832595088367</v>
+        <v>3175.609699058101</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.301158237855</v>
+        <v>2834.078262207589</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.096147672611</v>
+        <v>2475.873251642344</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5579879900291</v>
+        <v>941.5579879900289</v>
       </c>
       <c r="C18" t="n">
-        <v>767.1049587089021</v>
+        <v>767.1049587089019</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1705490476509</v>
+        <v>618.1705490476506</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9330940421953</v>
+        <v>458.9330940421952</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3985360690803</v>
+        <v>312.3985360690802</v>
       </c>
       <c r="G18" t="n">
-        <v>176.4446031620472</v>
+        <v>176.4446031620471</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89440313012595</v>
+        <v>89.89440313012592</v>
       </c>
       <c r="I18" t="n">
-        <v>84.97466852174483</v>
+        <v>84.97466852174486</v>
       </c>
       <c r="J18" t="n">
-        <v>84.97466852174483</v>
+        <v>216.5399902196718</v>
       </c>
       <c r="K18" t="n">
-        <v>326.6522204857854</v>
+        <v>397.0102991326813</v>
       </c>
       <c r="L18" t="n">
-        <v>326.6522204857854</v>
+        <v>850.7818555050867</v>
       </c>
       <c r="M18" t="n">
-        <v>875.5390919230525</v>
+        <v>850.7818555050867</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.362010499151</v>
+        <v>1428.604774081186</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.737298927462</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.815044481919</v>
+        <v>2322.057808063954</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.647070140289</v>
+        <v>2530.889833722324</v>
       </c>
       <c r="R18" t="n">
         <v>2555.647070140289</v>
@@ -5647,64 +5647,64 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8271731011466</v>
+        <v>872.8271731011465</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8253115838073</v>
+        <v>735.8253115838072</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6429935820391</v>
+        <v>617.642993582039</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6642214102136</v>
+        <v>501.6642214102135</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7085953228708</v>
+        <v>386.7085953228707</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2831121944147</v>
+        <v>251.2831121944143</v>
       </c>
       <c r="H19" t="n">
         <v>140.0501139170192</v>
       </c>
       <c r="I19" t="n">
-        <v>84.97466852174483</v>
+        <v>84.97466852174486</v>
       </c>
       <c r="J19" t="n">
         <v>185.165875748456</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5128821675396</v>
+        <v>459.5128821675397</v>
       </c>
       <c r="L19" t="n">
         <v>857.3561344719321</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.513787652301</v>
+        <v>1285.513787652302</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.669641424679</v>
+        <v>1709.66964142468</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.819222994815</v>
+        <v>2087.819222994816</v>
       </c>
       <c r="P19" t="n">
         <v>2392.388108824284</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.449880140759</v>
+        <v>2529.44988014076</v>
       </c>
       <c r="R19" t="n">
-        <v>2486.977714296391</v>
+        <v>2486.977714296392</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.204265255197</v>
+        <v>2333.204265255198</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.837653785663</v>
+        <v>2144.837653785664</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.687819162943</v>
+        <v>1887.687819162944</v>
       </c>
       <c r="V19" t="n">
         <v>1664.937652367624</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.430629019057</v>
+        <v>2121.20773298879</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.402433489213</v>
+        <v>1784.179537458946</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.07105629303</v>
+        <v>1457.848160262763</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.217125105353</v>
+        <v>1103.994229075086</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1655417263131</v>
+        <v>724.9426456960459</v>
       </c>
       <c r="G20" t="n">
         <v>342.79214417463</v>
       </c>
       <c r="H20" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174486</v>
       </c>
       <c r="I20" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174486</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4677820306666</v>
+        <v>337.467782030667</v>
       </c>
       <c r="K20" t="n">
         <v>766.6280253389918</v>
       </c>
       <c r="L20" t="n">
-        <v>1335.941017965508</v>
+        <v>1335.94101796551</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.080854576512</v>
+        <v>2001.080854576514</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.597157505005</v>
+        <v>2681.597157505007</v>
       </c>
       <c r="O20" t="n">
         <v>3310.854143942497</v>
@@ -5771,31 +5771,31 @@
         <v>3813.409422633032</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.634760904835</v>
+        <v>4142.634760904836</v>
       </c>
       <c r="R20" t="n">
-        <v>4248.733426087242</v>
+        <v>4248.733426087243</v>
       </c>
       <c r="S20" t="n">
-        <v>4187.80339107976</v>
+        <v>4187.803391079761</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.330471701093</v>
+        <v>4017.107575670826</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.795494880917</v>
+        <v>3795.572598850651</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.666928947914</v>
+        <v>3496.444032917648</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.832595088367</v>
+        <v>3175.609699058101</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.301158237855</v>
+        <v>2834.078262207589</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.096147672611</v>
+        <v>2475.873251642344</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5579879900289</v>
+        <v>941.5579879900291</v>
       </c>
       <c r="C21" t="n">
-        <v>767.1049587089019</v>
+        <v>767.1049587089021</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1705490476506</v>
+        <v>618.1705490476509</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9330940421952</v>
+        <v>458.9330940421953</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3985360690802</v>
+        <v>312.3985360690803</v>
       </c>
       <c r="G21" t="n">
-        <v>176.4446031620471</v>
+        <v>176.4446031620472</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89440313012592</v>
+        <v>89.89440313012594</v>
       </c>
       <c r="I21" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174486</v>
       </c>
       <c r="J21" t="n">
-        <v>84.97466852174485</v>
+        <v>216.5399902196717</v>
       </c>
       <c r="K21" t="n">
-        <v>84.97466852174485</v>
+        <v>216.5399902196717</v>
       </c>
       <c r="L21" t="n">
-        <v>326.6522204857845</v>
+        <v>670.311546592077</v>
       </c>
       <c r="M21" t="n">
-        <v>875.5390919230518</v>
+        <v>850.7818555050868</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.362010499151</v>
+        <v>1428.604774081186</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.737298927462</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.815044481919</v>
+        <v>2322.057808063954</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.647070140289</v>
+        <v>2530.889833722324</v>
       </c>
       <c r="R21" t="n">
         <v>2555.647070140289</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8271731011465</v>
+        <v>872.8271731011466</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8253115838072</v>
+        <v>735.8253115838073</v>
       </c>
       <c r="D22" t="n">
-        <v>617.642993582039</v>
+        <v>617.6429935820391</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6642214102135</v>
+        <v>501.6642214102136</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7085953228707</v>
+        <v>386.7085953228708</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2831121944146</v>
+        <v>251.2831121944147</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0501139170191</v>
+        <v>140.0501139170192</v>
       </c>
       <c r="I22" t="n">
-        <v>84.97466852174485</v>
+        <v>84.97466852174486</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1658757484562</v>
+        <v>185.1658757484553</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5128821675399</v>
+        <v>459.512882167539</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3561344719326</v>
+        <v>857.3561344719316</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.513787652302</v>
+        <v>1285.513787652301</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.66964142468</v>
+        <v>1709.669641424679</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.819222994816</v>
+        <v>2087.819222994815</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.388108824284</v>
+        <v>2392.388108824283</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.449880140759</v>
@@ -5935,10 +5935,10 @@
         <v>2486.977714296391</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.204265255198</v>
+        <v>2333.204265255197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.837653785664</v>
+        <v>2144.837653785663</v>
       </c>
       <c r="U22" t="n">
         <v>1887.687819162943</v>
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.20773298879</v>
+        <v>2121.207732988789</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.179537458946</v>
+        <v>1784.179537458945</v>
       </c>
       <c r="D23" t="n">
-        <v>1457.848160262763</v>
+        <v>1457.848160262762</v>
       </c>
       <c r="E23" t="n">
-        <v>1103.994229075086</v>
+        <v>1104.217125105353</v>
       </c>
       <c r="F23" t="n">
-        <v>724.9426456960459</v>
+        <v>725.1655417263132</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5692481443628</v>
+        <v>342.79214417463</v>
       </c>
       <c r="H23" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="I23" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J23" t="n">
-        <v>337.467782030667</v>
+        <v>337.4677820306666</v>
       </c>
       <c r="K23" t="n">
         <v>766.6280253389918</v>
       </c>
       <c r="L23" t="n">
-        <v>1335.94101796551</v>
+        <v>1335.941017965509</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.080854576514</v>
+        <v>2001.080854576513</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.597157505007</v>
+        <v>2681.597157505006</v>
       </c>
       <c r="O23" t="n">
         <v>3310.854143942497</v>
@@ -6008,31 +6008,31 @@
         <v>3813.409422633032</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.634760904836</v>
+        <v>4142.634760904835</v>
       </c>
       <c r="R23" t="n">
-        <v>4248.733426087243</v>
+        <v>4248.733426087242</v>
       </c>
       <c r="S23" t="n">
-        <v>4187.803391079761</v>
+        <v>4187.80339107976</v>
       </c>
       <c r="T23" t="n">
         <v>4017.107575670826</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.572598850651</v>
+        <v>3795.57259885065</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.444032917648</v>
+        <v>3496.444032917647</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.609699058101</v>
+        <v>3175.6096990581</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.078262207589</v>
+        <v>2834.078262207588</v>
       </c>
       <c r="Y23" t="n">
-        <v>2475.873251642344</v>
+        <v>2475.873251642343</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5579879900291</v>
+        <v>941.5579879900289</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1049587089021</v>
+        <v>767.1049587089019</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1705490476509</v>
+        <v>618.1705490476506</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9330940421953</v>
+        <v>458.9330940421952</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3985360690803</v>
+        <v>312.3985360690802</v>
       </c>
       <c r="G24" t="n">
-        <v>176.4446031620472</v>
+        <v>176.4446031620471</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89440313012594</v>
+        <v>89.89440313012592</v>
       </c>
       <c r="I24" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J24" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="K24" t="n">
-        <v>84.97466852174486</v>
+        <v>387.9955834445512</v>
       </c>
       <c r="L24" t="n">
-        <v>326.6522204857845</v>
+        <v>841.7671398169565</v>
       </c>
       <c r="M24" t="n">
-        <v>875.5390919230518</v>
+        <v>1262.61683747751</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.362010499151</v>
+        <v>1840.439756053609</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.737298927462</v>
+        <v>2346.815044481919</v>
       </c>
       <c r="P24" t="n">
         <v>2346.815044481919</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8271731011466</v>
+        <v>872.8271731011462</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8253115838073</v>
+        <v>735.8253115838069</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6429935820391</v>
+        <v>617.6429935820387</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6642214102136</v>
+        <v>501.6642214102131</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7085953228708</v>
+        <v>386.7085953228703</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2831121944147</v>
+        <v>251.2831121944143</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0501139170192</v>
+        <v>140.0501139170188</v>
       </c>
       <c r="I25" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J25" t="n">
         <v>185.165875748456</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5128821675397</v>
+        <v>459.5128821675396</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3561344719324</v>
+        <v>857.3561344719321</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.513787652302</v>
+        <v>1285.513787652301</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.66964142468</v>
+        <v>1709.669641424679</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.819222994816</v>
+        <v>2087.819222994815</v>
       </c>
       <c r="P25" t="n">
         <v>2392.388108824283</v>
@@ -6190,7 +6190,7 @@
         <v>1211.399574253781</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.541316520819</v>
+        <v>1022.541316520818</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.430629019057</v>
+        <v>2121.20773298879</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.402433489213</v>
+        <v>1784.179537458946</v>
       </c>
       <c r="D26" t="n">
         <v>1458.07105629303</v>
@@ -6254,22 +6254,22 @@
         <v>4187.803391079761</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.330471701094</v>
+        <v>4017.107575670826</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.795494880918</v>
+        <v>3795.572598850651</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.666928947915</v>
+        <v>3496.444032917648</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.832595088368</v>
+        <v>3175.609699058101</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.301158237856</v>
+        <v>2834.078262207589</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.096147672612</v>
+        <v>2475.873251642344</v>
       </c>
     </row>
     <row r="27">
@@ -6312,19 +6312,19 @@
         <v>973.3324615148833</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.219332952151</v>
+        <v>973.3324615148833</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.04225152825</v>
+        <v>1428.604774081186</v>
       </c>
       <c r="O27" t="n">
-        <v>2555.647070140289</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.647070140289</v>
+        <v>2322.057808063954</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.647070140289</v>
+        <v>2530.889833722324</v>
       </c>
       <c r="R27" t="n">
         <v>2555.647070140289</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8271731011464</v>
+        <v>872.8271731011458</v>
       </c>
       <c r="C28" t="n">
-        <v>735.825311583807</v>
+        <v>735.8253115838065</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6429935820388</v>
+        <v>617.6429935820383</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6642214102137</v>
+        <v>501.6642214102128</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7085953228709</v>
+        <v>386.70859532287</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2831121944147</v>
+        <v>251.2831121944139</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0501139170193</v>
+        <v>140.0501139170185</v>
       </c>
       <c r="I28" t="n">
         <v>84.97466852174486</v>
@@ -6388,10 +6388,10 @@
         <v>459.5128821675397</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3561344719323</v>
+        <v>857.3561344719321</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.513787652302</v>
+        <v>1285.513787652301</v>
       </c>
       <c r="N28" t="n">
         <v>1709.66964142468</v>
@@ -6409,10 +6409,10 @@
         <v>2486.977714296391</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.204265255198</v>
+        <v>2333.204265255197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.837653785664</v>
+        <v>2144.837653785663</v>
       </c>
       <c r="U28" t="n">
         <v>1887.687819162943</v>
@@ -6427,7 +6427,7 @@
         <v>1211.399574253781</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.541316520819</v>
+        <v>1022.541316520818</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>2121.207732988789</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.402433489213</v>
+        <v>1784.179537458945</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.07105629303</v>
+        <v>1457.848160262762</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.217125105353</v>
+        <v>1103.994229075085</v>
       </c>
       <c r="F29" t="n">
         <v>725.1655417263131</v>
@@ -6540,28 +6540,28 @@
         <v>84.97466852174485</v>
       </c>
       <c r="J30" t="n">
-        <v>84.97466852174485</v>
+        <v>216.5399902196717</v>
       </c>
       <c r="K30" t="n">
-        <v>84.97466852174485</v>
+        <v>519.5609051424781</v>
       </c>
       <c r="L30" t="n">
-        <v>326.6522204857845</v>
+        <v>973.3324615148833</v>
       </c>
       <c r="M30" t="n">
-        <v>875.5390919230518</v>
+        <v>973.3324615148833</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.362010499151</v>
+        <v>1551.155380090982</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.737298927462</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.815044481919</v>
+        <v>2322.057808063954</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.647070140289</v>
+        <v>2530.889833722324</v>
       </c>
       <c r="R30" t="n">
         <v>2555.647070140289</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8271731011472</v>
+        <v>872.8271731011465</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8253115838079</v>
+        <v>735.8253115838072</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6429935820397</v>
+        <v>617.642993582039</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6642214102142</v>
+        <v>501.6642214102135</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7085953228714</v>
+        <v>386.7085953228707</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2831121944146</v>
+        <v>251.2831121944145</v>
       </c>
       <c r="H31" t="n">
         <v>140.0501139170192</v>
@@ -6619,16 +6619,16 @@
         <v>84.97466852174485</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1658757484559</v>
+        <v>185.1658757484557</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5128821675396</v>
+        <v>459.5128821675394</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3561344719323</v>
+        <v>857.3561344719321</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.513787652302</v>
+        <v>1285.513787652301</v>
       </c>
       <c r="N31" t="n">
         <v>1709.66964142468</v>
@@ -6640,10 +6640,10 @@
         <v>2392.388108824284</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.44988014076</v>
+        <v>2529.449880140759</v>
       </c>
       <c r="R31" t="n">
-        <v>2486.977714296392</v>
+        <v>2486.977714296391</v>
       </c>
       <c r="S31" t="n">
         <v>2333.204265255198</v>
@@ -6652,16 +6652,16 @@
         <v>2144.837653785664</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.687819162944</v>
+        <v>1887.687819162943</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.937652367625</v>
+        <v>1664.937652367624</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.454803741232</v>
+        <v>1407.454803741231</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.399574253782</v>
+        <v>1211.399574253781</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.541316520819</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.430629019057</v>
+        <v>2121.20773298879</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.402433489213</v>
+        <v>1784.179537458946</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.07105629303</v>
+        <v>1457.848160262763</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.217125105353</v>
+        <v>1103.994229075086</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1655417263132</v>
+        <v>724.9426456960459</v>
       </c>
       <c r="G32" t="n">
-        <v>342.79214417463</v>
+        <v>342.5692481443628</v>
       </c>
       <c r="H32" t="n">
         <v>84.97466852174486</v>
@@ -6725,25 +6725,25 @@
         <v>4248.733426087243</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.026287110029</v>
+        <v>4187.803391079761</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.330471701094</v>
+        <v>4017.107575670826</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.795494880918</v>
+        <v>3795.572598850651</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.666928947915</v>
+        <v>3496.444032917648</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.832595088368</v>
+        <v>3175.609699058101</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.301158237856</v>
+        <v>2834.078262207589</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.096147672612</v>
+        <v>2475.873251642344</v>
       </c>
     </row>
     <row r="33">
@@ -6780,16 +6780,16 @@
         <v>84.97466852174486</v>
       </c>
       <c r="K33" t="n">
-        <v>84.97466852174486</v>
+        <v>387.9955834445512</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7462248941501</v>
+        <v>841.7671398169565</v>
       </c>
       <c r="M33" t="n">
-        <v>850.7818555050868</v>
+        <v>1390.654011254224</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.604774081186</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="O33" t="n">
         <v>1934.980062509497</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8271731011466</v>
+        <v>872.8271731011461</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8253115838073</v>
+        <v>735.8253115838068</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6429935820391</v>
+        <v>617.6429935820386</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6642214102136</v>
+        <v>501.664221410213</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7085953228708</v>
+        <v>386.7085953228702</v>
       </c>
       <c r="G34" t="n">
         <v>251.2831121944147</v>
@@ -6856,25 +6856,25 @@
         <v>84.97466852174486</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1658757484553</v>
+        <v>185.165875748456</v>
       </c>
       <c r="K34" t="n">
-        <v>459.512882167539</v>
+        <v>459.5128821675399</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3561344719316</v>
+        <v>857.3561344719326</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.513787652301</v>
+        <v>1285.513787652302</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.669641424679</v>
+        <v>1709.66964142468</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.819222994815</v>
+        <v>2087.819222994816</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.388108824283</v>
+        <v>2392.388108824284</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.449880140759</v>
@@ -6901,7 +6901,7 @@
         <v>1211.399574253781</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.541316520819</v>
+        <v>1022.541316520818</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.430629019057</v>
+        <v>2121.207732988789</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.402433489213</v>
+        <v>1784.179537458945</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.07105629303</v>
+        <v>1457.848160262762</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.217125105353</v>
+        <v>1103.994229075085</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1655417263132</v>
+        <v>724.942645696045</v>
       </c>
       <c r="G35" t="n">
-        <v>342.79214417463</v>
+        <v>342.5692481443619</v>
       </c>
       <c r="H35" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="I35" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4677820306665</v>
+        <v>337.4677820306666</v>
       </c>
       <c r="K35" t="n">
         <v>766.6280253389918</v>
@@ -6956,31 +6956,31 @@
         <v>3813.409422633032</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.634760904836</v>
+        <v>4142.634760904835</v>
       </c>
       <c r="R35" t="n">
-        <v>4248.733426087243</v>
+        <v>4248.733426087242</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.026287110029</v>
+        <v>4187.80339107976</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.330471701094</v>
+        <v>4017.107575670826</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.795494880918</v>
+        <v>3795.57259885065</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.666928947915</v>
+        <v>3496.444032917647</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.832595088368</v>
+        <v>3175.6096990581</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.301158237856</v>
+        <v>2834.078262207588</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.096147672612</v>
+        <v>2475.873251642343</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5579879900291</v>
+        <v>941.5579879900289</v>
       </c>
       <c r="C36" t="n">
-        <v>767.1049587089021</v>
+        <v>767.1049587089019</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1705490476509</v>
+        <v>618.1705490476506</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9330940421953</v>
+        <v>458.9330940421952</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3985360690803</v>
+        <v>312.3985360690802</v>
       </c>
       <c r="G36" t="n">
-        <v>176.4446031620472</v>
+        <v>176.4446031620471</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89440313012594</v>
+        <v>89.89440313012592</v>
       </c>
       <c r="I36" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J36" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="K36" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="L36" t="n">
-        <v>326.6522204857845</v>
+        <v>538.7462248941501</v>
       </c>
       <c r="M36" t="n">
-        <v>875.5390919230518</v>
+        <v>1087.633096331418</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.362010499151</v>
+        <v>1665.456014907517</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.737298927462</v>
+        <v>2171.831303335827</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.815044481919</v>
+        <v>2322.057808063954</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.647070140289</v>
+        <v>2530.889833722324</v>
       </c>
       <c r="R36" t="n">
         <v>2555.647070140289</v>
@@ -7090,7 +7090,7 @@
         <v>140.0501139170192</v>
       </c>
       <c r="I37" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J37" t="n">
         <v>185.1658757484553</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.430629019057</v>
+        <v>2121.207732988789</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.402433489213</v>
+        <v>1784.179537458945</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.07105629303</v>
+        <v>1457.848160262762</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.217125105353</v>
+        <v>1103.994229075085</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1655417263132</v>
+        <v>724.942645696045</v>
       </c>
       <c r="G38" t="n">
-        <v>342.79214417463</v>
+        <v>342.5692481443619</v>
       </c>
       <c r="H38" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="I38" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J38" t="n">
-        <v>337.467782030667</v>
+        <v>337.4677820306665</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6280253389918</v>
+        <v>766.6280253389916</v>
       </c>
       <c r="L38" t="n">
-        <v>1335.94101796551</v>
+        <v>1335.941017965509</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.080854576514</v>
+        <v>2001.080854576513</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.597157505007</v>
+        <v>2681.597157505006</v>
       </c>
       <c r="O38" t="n">
         <v>3310.854143942497</v>
@@ -7193,31 +7193,31 @@
         <v>3813.409422633032</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.634760904836</v>
+        <v>4142.634760904835</v>
       </c>
       <c r="R38" t="n">
-        <v>4248.733426087243</v>
+        <v>4248.733426087242</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.026287110029</v>
+        <v>4187.80339107976</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.330471701094</v>
+        <v>4017.107575670826</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.795494880918</v>
+        <v>3795.57259885065</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.666928947915</v>
+        <v>3496.444032917647</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.832595088368</v>
+        <v>3175.6096990581</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.301158237856</v>
+        <v>2834.078262207588</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.096147672612</v>
+        <v>2475.873251642343</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5579879900291</v>
+        <v>941.5579879900289</v>
       </c>
       <c r="C39" t="n">
-        <v>767.1049587089021</v>
+        <v>767.1049587089019</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1705490476509</v>
+        <v>618.1705490476506</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9330940421953</v>
+        <v>458.9330940421952</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3985360690803</v>
+        <v>312.3985360690802</v>
       </c>
       <c r="G39" t="n">
-        <v>176.4446031620472</v>
+        <v>176.4446031620471</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89440313012594</v>
+        <v>89.89440313012592</v>
       </c>
       <c r="I39" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J39" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="K39" t="n">
-        <v>84.97466852174486</v>
+        <v>387.9955834445512</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7462248941501</v>
+        <v>387.9955834445512</v>
       </c>
       <c r="M39" t="n">
-        <v>1087.633096331418</v>
+        <v>936.8824548818186</v>
       </c>
       <c r="N39" t="n">
-        <v>1665.456014907517</v>
+        <v>1428.604774081186</v>
       </c>
       <c r="O39" t="n">
-        <v>2171.831303335827</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.815044481919</v>
+        <v>2322.057808063954</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.647070140289</v>
+        <v>2530.889833722324</v>
       </c>
       <c r="R39" t="n">
         <v>2555.647070140289</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8271731011465</v>
+        <v>872.8271731011466</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8253115838072</v>
+        <v>735.8253115838073</v>
       </c>
       <c r="D40" t="n">
-        <v>617.642993582039</v>
+        <v>617.6429935820391</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6642214102135</v>
+        <v>501.6642214102136</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7085953228707</v>
+        <v>386.7085953228708</v>
       </c>
       <c r="G40" t="n">
         <v>251.2831121944147</v>
@@ -7327,16 +7327,16 @@
         <v>140.0501139170192</v>
       </c>
       <c r="I40" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1658757484558</v>
+        <v>185.165875748456</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5128821675393</v>
+        <v>459.512882167539</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3561344719319</v>
+        <v>857.3561344719316</v>
       </c>
       <c r="M40" t="n">
         <v>1285.513787652301</v>
@@ -7345,10 +7345,10 @@
         <v>1709.669641424679</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.819222994816</v>
+        <v>2087.819222994815</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.388108824284</v>
+        <v>2392.388108824283</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.449880140759</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2325.551156934389</v>
+        <v>1865.733161704249</v>
       </c>
       <c r="C41" t="n">
-        <v>1956.588639993977</v>
+        <v>1496.770644763837</v>
       </c>
       <c r="D41" t="n">
-        <v>1598.322941387227</v>
+        <v>1138.504946157087</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.534688788983</v>
+        <v>752.7166935588425</v>
       </c>
       <c r="F41" t="n">
-        <v>801.5487839993752</v>
+        <v>341.7307887692349</v>
       </c>
       <c r="G41" t="n">
-        <v>387.2410650371246</v>
+        <v>97.48926797367183</v>
       </c>
       <c r="H41" t="n">
-        <v>97.48926797367184</v>
+        <v>97.48926797367183</v>
       </c>
       <c r="I41" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J41" t="n">
-        <v>337.467782030667</v>
+        <v>337.4677820306666</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6280253389923</v>
+        <v>766.6280253389918</v>
       </c>
       <c r="L41" t="n">
-        <v>1335.94101796551</v>
+        <v>1335.941017965509</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.080854576514</v>
+        <v>2001.080854576513</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.597157505007</v>
+        <v>2681.597157505006</v>
       </c>
       <c r="O41" t="n">
-        <v>3310.854143942498</v>
+        <v>3310.854143942496</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.409422633033</v>
+        <v>3813.409422633032</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.634760904836</v>
+        <v>4142.634760904835</v>
       </c>
       <c r="R41" t="n">
-        <v>4248.733426087243</v>
+        <v>4248.733426087242</v>
       </c>
       <c r="S41" t="n">
-        <v>4248.733426087243</v>
+        <v>4155.869069669193</v>
       </c>
       <c r="T41" t="n">
-        <v>4248.733426087243</v>
+        <v>3953.238932849691</v>
       </c>
       <c r="U41" t="n">
-        <v>4159.587629849088</v>
+        <v>3699.769634618947</v>
       </c>
       <c r="V41" t="n">
-        <v>3828.524742505517</v>
+        <v>3368.706747275377</v>
       </c>
       <c r="W41" t="n">
-        <v>3475.756087235403</v>
+        <v>3015.938092005262</v>
       </c>
       <c r="X41" t="n">
-        <v>3102.290328974323</v>
+        <v>2642.472333744182</v>
       </c>
       <c r="Y41" t="n">
-        <v>2712.150996998511</v>
+        <v>2252.333001768371</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5579879900291</v>
+        <v>941.5579879900289</v>
       </c>
       <c r="C42" t="n">
-        <v>767.1049587089021</v>
+        <v>767.1049587089019</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1705490476509</v>
+        <v>618.1705490476506</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9330940421953</v>
+        <v>458.9330940421952</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3985360690803</v>
+        <v>312.3985360690802</v>
       </c>
       <c r="G42" t="n">
-        <v>176.4446031620472</v>
+        <v>176.4446031620471</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89440313012594</v>
+        <v>89.89440313012592</v>
       </c>
       <c r="I42" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J42" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="K42" t="n">
-        <v>84.97466852174486</v>
+        <v>387.9955834445512</v>
       </c>
       <c r="L42" t="n">
-        <v>538.7462248941501</v>
+        <v>841.7671398169565</v>
       </c>
       <c r="M42" t="n">
-        <v>1087.633096331418</v>
+        <v>1390.654011254224</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.456014907517</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="O42" t="n">
-        <v>2171.831303335827</v>
+        <v>1934.980062509497</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.647070140289</v>
+        <v>2322.057808063954</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.647070140289</v>
+        <v>2530.889833722324</v>
       </c>
       <c r="R42" t="n">
         <v>2555.647070140289</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>409.4341403449969</v>
+        <v>470.0141683223156</v>
       </c>
       <c r="C43" t="n">
-        <v>409.4341403449969</v>
+        <v>470.0141683223156</v>
       </c>
       <c r="D43" t="n">
-        <v>400.2475666431616</v>
+        <v>319.8975289099799</v>
       </c>
       <c r="E43" t="n">
-        <v>252.3344730607685</v>
+        <v>171.9844353275868</v>
       </c>
       <c r="F43" t="n">
-        <v>252.3344730607685</v>
+        <v>171.9844353275868</v>
       </c>
       <c r="G43" t="n">
-        <v>84.97466852174486</v>
+        <v>171.9844353275868</v>
       </c>
       <c r="H43" t="n">
-        <v>84.97466852174486</v>
+        <v>171.9844353275868</v>
       </c>
       <c r="I43" t="n">
-        <v>84.97466852174486</v>
+        <v>84.97466852174485</v>
       </c>
       <c r="J43" t="n">
         <v>153.8670473339587</v>
@@ -7591,28 +7591,28 @@
         <v>2279.059252824782</v>
       </c>
       <c r="R43" t="n">
-        <v>2279.059252824782</v>
+        <v>2204.652765569846</v>
       </c>
       <c r="S43" t="n">
-        <v>2093.351482373021</v>
+        <v>2018.944995118085</v>
       </c>
       <c r="T43" t="n">
-        <v>1873.05054949292</v>
+        <v>1798.644062237983</v>
       </c>
       <c r="U43" t="n">
-        <v>1583.966393459632</v>
+        <v>1509.559906204696</v>
       </c>
       <c r="V43" t="n">
-        <v>1329.281905253745</v>
+        <v>1254.875417998809</v>
       </c>
       <c r="W43" t="n">
-        <v>1039.864735216784</v>
+        <v>965.458247961848</v>
       </c>
       <c r="X43" t="n">
-        <v>811.8751843187667</v>
+        <v>737.4686970638306</v>
       </c>
       <c r="Y43" t="n">
-        <v>591.0826051752366</v>
+        <v>516.6761179203005</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2313.036557482462</v>
+        <v>1865.733161704249</v>
       </c>
       <c r="C44" t="n">
-        <v>1944.074040542051</v>
+        <v>1496.770644763837</v>
       </c>
       <c r="D44" t="n">
-        <v>1585.8083419353</v>
+        <v>1138.504946157087</v>
       </c>
       <c r="E44" t="n">
-        <v>1200.020089337056</v>
+        <v>752.7166935588425</v>
       </c>
       <c r="F44" t="n">
-        <v>789.0341845474483</v>
+        <v>374.7264655851976</v>
       </c>
       <c r="G44" t="n">
         <v>374.7264655851976</v>
@@ -7673,25 +7673,25 @@
         <v>4248.733426087242</v>
       </c>
       <c r="S44" t="n">
-        <v>4248.733426087242</v>
+        <v>4155.869069669193</v>
       </c>
       <c r="T44" t="n">
-        <v>4248.733426087242</v>
+        <v>3953.238932849691</v>
       </c>
       <c r="U44" t="n">
-        <v>4147.07303039716</v>
+        <v>3699.769634618947</v>
       </c>
       <c r="V44" t="n">
-        <v>3816.01014305359</v>
+        <v>3368.706747275377</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.241487783476</v>
+        <v>3015.938092005262</v>
       </c>
       <c r="X44" t="n">
-        <v>3089.775729522396</v>
+        <v>2642.472333744182</v>
       </c>
       <c r="Y44" t="n">
-        <v>2699.636397546584</v>
+        <v>2252.333001768371</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>84.97466852174485</v>
       </c>
       <c r="J45" t="n">
-        <v>84.97466852174485</v>
+        <v>216.5399902196717</v>
       </c>
       <c r="K45" t="n">
-        <v>84.97466852174485</v>
+        <v>216.5399902196717</v>
       </c>
       <c r="L45" t="n">
-        <v>538.74622489415</v>
+        <v>301.8949840678202</v>
       </c>
       <c r="M45" t="n">
         <v>850.7818555050874</v>
@@ -7783,22 +7783,22 @@
         <v>335.0276530900599</v>
       </c>
       <c r="C46" t="n">
-        <v>166.0914701621529</v>
+        <v>335.0276530900599</v>
       </c>
       <c r="D46" t="n">
-        <v>166.0914701621529</v>
+        <v>335.0276530900599</v>
       </c>
       <c r="E46" t="n">
-        <v>166.0914701621529</v>
+        <v>335.0276530900599</v>
       </c>
       <c r="F46" t="n">
-        <v>166.0914701621529</v>
+        <v>335.0276530900599</v>
       </c>
       <c r="G46" t="n">
-        <v>84.97466852174485</v>
+        <v>315.1517550155498</v>
       </c>
       <c r="H46" t="n">
-        <v>84.97466852174485</v>
+        <v>171.9844353275868</v>
       </c>
       <c r="I46" t="n">
         <v>84.97466852174485</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.00047928014439</v>
+        <v>75.00047928014394</v>
       </c>
       <c r="K2" t="n">
-        <v>61.15524804105056</v>
+        <v>61.1552480410499</v>
       </c>
       <c r="L2" t="n">
-        <v>45.47003172636795</v>
+        <v>38.59398598465631</v>
       </c>
       <c r="M2" t="n">
-        <v>17.82996066300737</v>
+        <v>10.95391492129562</v>
       </c>
       <c r="N2" t="n">
-        <v>13.06897392455964</v>
+        <v>13.34679395452744</v>
       </c>
       <c r="O2" t="n">
-        <v>26.45615064626728</v>
+        <v>26.45615064626702</v>
       </c>
       <c r="P2" t="n">
-        <v>51.56066235142819</v>
+        <v>58.15888806317072</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.37925012608795</v>
+        <v>94.25529586779882</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>63.67769787371812</v>
+        <v>63.67769787371785</v>
       </c>
       <c r="K3" t="n">
-        <v>29.89106070176312</v>
+        <v>29.89106070176267</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.317521485757055</v>
+        <v>6.317521485756515</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.64652653066311</v>
+        <v>54.64652653066275</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>63.89801675349571</v>
+        <v>63.89801675349544</v>
       </c>
       <c r="L4" t="n">
-        <v>58.43563140211442</v>
+        <v>58.15781137214655</v>
       </c>
       <c r="M4" t="n">
-        <v>57.94720466943988</v>
+        <v>51.0711589277287</v>
       </c>
       <c r="N4" t="n">
-        <v>48.51813177533037</v>
+        <v>48.79595180529876</v>
       </c>
       <c r="O4" t="n">
-        <v>66.11413555880138</v>
+        <v>66.11413555880168</v>
       </c>
       <c r="P4" t="n">
-        <v>69.94293583222309</v>
+        <v>76.81898157393422</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.75247211164648</v>
+        <v>76.62851785335792</v>
       </c>
       <c r="K5" t="n">
         <v>53.28984570098882</v>
       </c>
       <c r="L5" t="n">
-        <v>28.83625887535973</v>
+        <v>35.71230461707117</v>
       </c>
       <c r="M5" t="n">
-        <v>6.972609141182829</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N5" t="n">
-        <v>2.035939104100421</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>16.03796872534122</v>
+        <v>11.1978620877302</v>
       </c>
       <c r="P5" t="n">
         <v>49.5450308567861</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>60.67557455063191</v>
+        <v>67.55162029234334</v>
       </c>
       <c r="L7" t="n">
         <v>54.03419480050098</v>
       </c>
       <c r="M7" t="n">
-        <v>53.59942916834656</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N7" t="n">
-        <v>44.55155668786512</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O7" t="n">
         <v>62.19374969259492</v>
       </c>
       <c r="P7" t="n">
-        <v>66.5883684560963</v>
+        <v>73.46441419780774</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>75.52794808997315</v>
+        <v>68.65190234826171</v>
       </c>
       <c r="K8" t="n">
-        <v>51.64037691895487</v>
+        <v>56.05824978144794</v>
       </c>
       <c r="L8" t="n">
-        <v>26.78994699523963</v>
+        <v>33.66599273695107</v>
       </c>
       <c r="M8" t="n">
-        <v>4.69569289246121</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.57533155555667</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P8" t="n">
         <v>40.80429423377234</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.30166562967011</v>
+        <v>86.17771137138155</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8611,13 +8611,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>59.99978994537916</v>
+        <v>66.59801565712245</v>
       </c>
       <c r="L10" t="n">
-        <v>53.16942317027382</v>
+        <v>46.57119745853053</v>
       </c>
       <c r="M10" t="n">
-        <v>52.68764873420156</v>
+        <v>45.81160299249012</v>
       </c>
       <c r="N10" t="n">
         <v>43.66145635451461</v>
@@ -8626,7 +8626,7 @@
         <v>61.37159796783205</v>
       </c>
       <c r="P10" t="n">
-        <v>65.88487562446231</v>
+        <v>72.76092136617375</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.270539643082884e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.177242735923931</v>
+        <v>7.1772427359233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2206670699645557</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.2206670699636106</v>
       </c>
     </row>
     <row r="12">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2206670699654012</v>
+        <v>0.2206670699635538</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.2206670699642928</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2206670699659128</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.220667069964577</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2206670699650601</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.220667069965657</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2206670699644917</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.220667069964577</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2206670699650886</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2206670699652022</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.2206670699653159</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.2206670699644917</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2206670699654225</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.2206670699654012</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2206670699654225</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.2206670699654012</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2206670699654225</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>168.3655361850206</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.8542790928182</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>91.93571285386879</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>200.6038354513073</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>162.680266972662</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.6366500799323</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>139.5207650533955</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6862064936334</v>
       </c>
       <c r="H43" t="n">
         <v>141.7356464910834</v>
       </c>
       <c r="I43" t="n">
-        <v>86.13966913778353</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.66242238238654</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>32.66572004780295</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.1646417726282</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>91.93571285386882</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>200.6038354513073</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>150.290813515255</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>85.3805728696294</v>
+        <v>146.0090673998685</v>
       </c>
       <c r="H46" t="n">
-        <v>141.7356464910834</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.13966913778354</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>745590.2571122416</v>
+        <v>745590.2571122414</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730595.0584700713</v>
+        <v>730595.0584700715</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730595.0584700713</v>
+        <v>730595.0584700715</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730595.0584700713</v>
+        <v>730595.0584700715</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730595.0584700715</v>
+        <v>730595.0584700713</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730595.0584700713</v>
+        <v>730595.0584700715</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730595.0584700713</v>
+        <v>730595.0584700715</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>683076.1139814828</v>
+        <v>683076.1139814826</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717911.6536746909</v>
+        <v>717911.653674691</v>
       </c>
       <c r="C2" t="n">
-        <v>717915.9603501857</v>
+        <v>717915.9603501856</v>
       </c>
       <c r="D2" t="n">
-        <v>717916.8635114576</v>
+        <v>717916.8635114579</v>
       </c>
       <c r="E2" t="n">
         <v>718396.1791698255</v>
       </c>
       <c r="F2" t="n">
+        <v>718396.179169824</v>
+      </c>
+      <c r="G2" t="n">
+        <v>718396.1791698254</v>
+      </c>
+      <c r="H2" t="n">
+        <v>718396.1791698257</v>
+      </c>
+      <c r="I2" t="n">
+        <v>718396.1791698254</v>
+      </c>
+      <c r="J2" t="n">
         <v>718396.1791698255</v>
       </c>
-      <c r="G2" t="n">
-        <v>718396.1791698255</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>718396.1791698254</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>718396.1791698256</v>
+      </c>
+      <c r="M2" t="n">
         <v>718396.1791698257</v>
-      </c>
-      <c r="J2" t="n">
-        <v>718396.1791698239</v>
-      </c>
-      <c r="K2" t="n">
-        <v>718396.1791698255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>718396.1791698254</v>
-      </c>
-      <c r="M2" t="n">
-        <v>718396.1791698255</v>
       </c>
       <c r="N2" t="n">
         <v>718396.1791698253</v>
       </c>
       <c r="O2" t="n">
-        <v>670877.2346812361</v>
+        <v>670877.2346812363</v>
       </c>
       <c r="P2" t="n">
         <v>670877.2346812363</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301795.6732510798</v>
+        <v>301795.6732510813</v>
       </c>
       <c r="C3" t="n">
-        <v>14005.95471076263</v>
+        <v>14005.95471076124</v>
       </c>
       <c r="D3" t="n">
         <v>2762.428420367622</v>
       </c>
       <c r="E3" t="n">
-        <v>1102567.381915872</v>
+        <v>1102567.381915873</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>27091.05866921363</v>
+        <v>27091.05866921423</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>262986.8030756437</v>
+        <v>262986.803075644</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357633.3664511602</v>
+        <v>357633.3664511598</v>
       </c>
       <c r="C4" t="n">
         <v>353542.7788371934</v>
@@ -26424,31 +26424,31 @@
         <v>352713.0207990833</v>
       </c>
       <c r="E4" t="n">
+        <v>44014.46733902399</v>
+      </c>
+      <c r="F4" t="n">
         <v>44014.46733902401</v>
       </c>
-      <c r="F4" t="n">
-        <v>44014.46733902403</v>
-      </c>
       <c r="G4" t="n">
-        <v>44014.46733902403</v>
+        <v>44014.46733902401</v>
       </c>
       <c r="H4" t="n">
-        <v>44014.46733902404</v>
+        <v>44014.467339024</v>
       </c>
       <c r="I4" t="n">
+        <v>44014.46733902399</v>
+      </c>
+      <c r="J4" t="n">
         <v>44014.46733902401</v>
       </c>
-      <c r="J4" t="n">
-        <v>44014.46733902398</v>
-      </c>
       <c r="K4" t="n">
-        <v>44014.46733902403</v>
+        <v>44014.46733902401</v>
       </c>
       <c r="L4" t="n">
+        <v>44014.46733902401</v>
+      </c>
+      <c r="M4" t="n">
         <v>44014.467339024</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44014.46733902401</v>
       </c>
       <c r="N4" t="n">
         <v>44014.46733902401</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40821.11334920082</v>
+        <v>40821.11334920088</v>
       </c>
       <c r="C5" t="n">
         <v>41156.4187984472</v>
@@ -26476,19 +26476,19 @@
         <v>41226.73635463382</v>
       </c>
       <c r="E5" t="n">
+        <v>95101.19636620389</v>
+      </c>
+      <c r="F5" t="n">
+        <v>95101.19636620389</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95101.19636620388</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95101.19636620386</v>
+      </c>
+      <c r="I5" t="n">
         <v>95101.19636620385</v>
-      </c>
-      <c r="F5" t="n">
-        <v>95101.19636620385</v>
-      </c>
-      <c r="G5" t="n">
-        <v>95101.19636620383</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95101.19636620385</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95101.19636620386</v>
       </c>
       <c r="J5" t="n">
         <v>95101.19636620386</v>
@@ -26500,13 +26500,13 @@
         <v>95101.19636620386</v>
       </c>
       <c r="M5" t="n">
-        <v>95101.19636620386</v>
+        <v>95101.19636620385</v>
       </c>
       <c r="N5" t="n">
-        <v>95101.19636620386</v>
+        <v>95101.19636620385</v>
       </c>
       <c r="O5" t="n">
-        <v>92443.35676420551</v>
+        <v>92443.3567642055</v>
       </c>
       <c r="P5" t="n">
         <v>92443.3567642055</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17661.50062325002</v>
+        <v>17660.07235194458</v>
       </c>
       <c r="C6" t="n">
-        <v>309210.8080037826</v>
+        <v>309209.3920372666</v>
       </c>
       <c r="D6" t="n">
-        <v>321214.6779373728</v>
+        <v>321213.2645513166</v>
       </c>
       <c r="E6" t="n">
-        <v>-523286.8664512748</v>
+        <v>-523286.9103640222</v>
       </c>
       <c r="F6" t="n">
-        <v>579280.5154645976</v>
+        <v>579280.471551849</v>
       </c>
       <c r="G6" t="n">
-        <v>579280.515464598</v>
+        <v>579280.4715518506</v>
       </c>
       <c r="H6" t="n">
-        <v>579280.5154645971</v>
+        <v>579280.4715518511</v>
       </c>
       <c r="I6" t="n">
-        <v>579280.5154645978</v>
+        <v>579280.4715518507</v>
       </c>
       <c r="J6" t="n">
-        <v>552189.4567953824</v>
+        <v>552189.4128826364</v>
       </c>
       <c r="K6" t="n">
-        <v>579280.5154645976</v>
+        <v>579280.4715518506</v>
       </c>
       <c r="L6" t="n">
-        <v>579280.5154645976</v>
+        <v>579280.4715518508</v>
       </c>
       <c r="M6" t="n">
-        <v>316293.7123889539</v>
+        <v>316293.668476207</v>
       </c>
       <c r="N6" t="n">
-        <v>579280.5154645975</v>
+        <v>579280.4715518504</v>
       </c>
       <c r="O6" t="n">
-        <v>565494.317197157</v>
+        <v>565358.5048715858</v>
       </c>
       <c r="P6" t="n">
-        <v>565494.3171971572</v>
+        <v>565358.5048715858</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>31.61497819646186</v>
+      </c>
+      <c r="F2" t="n">
         <v>31.61497819646188</v>
       </c>
-      <c r="F2" t="n">
-        <v>31.6149781964619</v>
-      </c>
       <c r="G2" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H2" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="L2" t="n">
         <v>31.61497819646188</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.800448078202</v>
+        <v>310.8004480782033</v>
       </c>
       <c r="C3" t="n">
         <v>326.1814319885848</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
         <v>6.876045741711437</v>
@@ -26802,7 +26802,7 @@
         <v>1062.183356521811</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.18335652181</v>
+        <v>1062.183356521811</v>
       </c>
       <c r="H4" t="n">
         <v>1062.183356521811</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61497819646189</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61497819646185</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.800448078202</v>
+        <v>310.8004480782033</v>
       </c>
       <c r="C3" t="n">
-        <v>15.38098391038284</v>
+        <v>15.38098391038153</v>
       </c>
       <c r="D3" t="n">
         <v>3.225575971863634</v>
       </c>
       <c r="E3" t="n">
-        <v>948.6943079881487</v>
+        <v>948.6943079881489</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>6.271956370920306e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1055.307310780099</v>
+        <v>1055.3073107801</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741710699</v>
+        <v>6.876045741712868</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1055.307310780099</v>
+        <v>1055.3073107801</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61497819646189</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61497819646185</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>6.271956370920306e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1055.307310780099</v>
+        <v>1055.3073107801</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>326.6788821604671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.2500844628763</v>
+        <v>162.306505552175</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>64.50736909756006</v>
+        <v>71.38341483927053</v>
       </c>
       <c r="S2" t="n">
-        <v>180.548249644207</v>
+        <v>174.4918285549075</v>
       </c>
       <c r="T2" t="n">
         <v>217.6263864024737</v>
@@ -27436,7 +27436,7 @@
         <v>251.2456969848365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>320.8762127284235</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>141.3886444753399</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E3" t="n">
-        <v>150.7690347136901</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516731</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6750029918726</v>
@@ -27476,7 +27476,7 @@
         <v>105.7790047396266</v>
       </c>
       <c r="I3" t="n">
-        <v>66.37980721543502</v>
+        <v>66.37980721543492</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51.77526819399809</v>
+        <v>58.65131393570873</v>
       </c>
       <c r="S3" t="n">
-        <v>159.265813579204</v>
+        <v>152.3897678374925</v>
       </c>
       <c r="T3" t="n">
         <v>197.4701474515776</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>245.6385620716202</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="4">
@@ -27555,10 +27555,10 @@
         <v>157.2441751595628</v>
       </c>
       <c r="I4" t="n">
-        <v>132.5394983913579</v>
+        <v>138.5959194806567</v>
       </c>
       <c r="J4" t="n">
-        <v>46.8586247896476</v>
+        <v>53.73467053135825</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.35512985017508</v>
+        <v>39.23117559188569</v>
       </c>
       <c r="R4" t="n">
-        <v>145.2170338945605</v>
+        <v>145.2170338945598</v>
       </c>
       <c r="S4" t="n">
         <v>214.2493118244163</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5508974512855</v>
+        <v>218.6748517095741</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2884588206143</v>
+        <v>280.2320377313149</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.62324555761737</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S5" t="n">
         <v>179.1392278518137</v>
@@ -27670,7 +27670,7 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2407503367447</v>
+        <v>244.3647045950333</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>129.7658736243917</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H6" t="n">
-        <v>98.58344082272028</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I6" t="n">
-        <v>58.36469804262448</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.59722706556381</v>
+        <v>49.72118132385237</v>
       </c>
       <c r="S6" t="n">
-        <v>158.6512997408977</v>
+        <v>151.7752539991862</v>
       </c>
       <c r="T6" t="n">
         <v>197.336797223147</v>
@@ -27752,13 +27752,13 @@
         <v>225.8952243311651</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G7" t="n">
         <v>167.4027833335613</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1215293807308</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I7" t="n">
         <v>137.761816287615</v>
       </c>
       <c r="J7" t="n">
-        <v>44.89767541471178</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.90864702141808</v>
+        <v>30.03260127970665</v>
       </c>
       <c r="R7" t="n">
         <v>150.8459592031442</v>
       </c>
       <c r="S7" t="n">
-        <v>213.7659454939867</v>
+        <v>206.8898997522753</v>
       </c>
       <c r="T7" t="n">
-        <v>225.4323882309924</v>
+        <v>218.556342489281</v>
       </c>
       <c r="U7" t="n">
         <v>286.286945936951</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>359.2164706817081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>59.80869847563716</v>
+        <v>66.68474421734859</v>
       </c>
       <c r="S8" t="n">
         <v>178.8437391585118</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2989483486666</v>
+        <v>210.4229026069551</v>
       </c>
       <c r="U8" t="n">
         <v>251.2397129655779</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>160.4767625605679</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.16646052351003</v>
+        <v>49.29041478179859</v>
       </c>
       <c r="S9" t="n">
         <v>158.5224288518331</v>
@@ -27986,19 +27986,19 @@
         <v>197.3088320880702</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8947678817351</v>
+        <v>219.0187221400237</v>
       </c>
       <c r="V9" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28056,7 +28056,7 @@
         <v>29.54553930795525</v>
       </c>
       <c r="R10" t="n">
-        <v>150.5844231579502</v>
+        <v>144.5280020686508</v>
       </c>
       <c r="S10" t="n">
         <v>213.6645778031988</v>
@@ -28065,16 +28065,16 @@
         <v>225.4075354325207</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2866286671833</v>
+        <v>279.4105829254719</v>
       </c>
       <c r="V10" t="n">
         <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>219.6532342997377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38945345740771</v>
+        <v>12.38945345740768</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646186</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38945345740771</v>
+        <v>12.38945345740768</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="J16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="K16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="L16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="M16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="N16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="O16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="P16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="R16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="S16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38945345740777</v>
+        <v>12.38945345740768</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61497819646154</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I20" t="n">
         <v>12.38945345740771</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646119</v>
       </c>
       <c r="K22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="L22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="M22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="N22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="P22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="R22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="I23" t="n">
         <v>12.38945345740771</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61497819646087</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6149781964619</v>
+        <v>31.61497819646186</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I26" t="n">
         <v>12.38945345740771</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61497819646186</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I29" t="n">
         <v>12.38945345740771</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61497819646191</v>
+        <v>31.61497819646188</v>
       </c>
     </row>
     <row r="32">
@@ -29928,7 +29928,7 @@
         <v>31.61497819646188</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61497819646119</v>
+        <v>31.61497819646188</v>
       </c>
       <c r="K34" t="n">
         <v>31.61497819646188</v>
@@ -30165,7 +30165,7 @@
         <v>31.61497819646188</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61497819646119</v>
+        <v>31.61497819646121</v>
       </c>
       <c r="K37" t="n">
         <v>31.61497819646188</v>
@@ -30405,7 +30405,7 @@
         <v>31.61497819646188</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61497819646188</v>
+        <v>31.61497819646118</v>
       </c>
       <c r="L40" t="n">
         <v>31.61497819646188</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.249449037500308</v>
+        <v>1.249449037500314</v>
       </c>
       <c r="H2" t="n">
-        <v>12.79591995530004</v>
+        <v>12.79591995530009</v>
       </c>
       <c r="I2" t="n">
-        <v>48.16938401823069</v>
+        <v>48.16938401823089</v>
       </c>
       <c r="J2" t="n">
-        <v>106.0454252465419</v>
+        <v>106.0454252465424</v>
       </c>
       <c r="K2" t="n">
-        <v>158.93460300393</v>
+        <v>158.9346030039306</v>
       </c>
       <c r="L2" t="n">
-        <v>197.1724289853301</v>
+        <v>197.1724289853309</v>
       </c>
       <c r="M2" t="n">
-        <v>219.3923183059762</v>
+        <v>219.3923183059771</v>
       </c>
       <c r="N2" t="n">
-        <v>222.942315383774</v>
+        <v>222.9423153837749</v>
       </c>
       <c r="O2" t="n">
-        <v>210.5181065171303</v>
+        <v>210.5181065171311</v>
       </c>
       <c r="P2" t="n">
-        <v>179.6723334038413</v>
+        <v>179.6723334038421</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.9264397483615</v>
+        <v>134.9264397483621</v>
       </c>
       <c r="R2" t="n">
-        <v>78.48570310187881</v>
+        <v>78.48570310187915</v>
       </c>
       <c r="S2" t="n">
-        <v>28.47181994203831</v>
+        <v>28.47181994203843</v>
       </c>
       <c r="T2" t="n">
-        <v>5.469463161657603</v>
+        <v>5.469463161657626</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09995592300002465</v>
+        <v>0.09995592300002508</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6685141713380193</v>
+        <v>0.6685141713380222</v>
       </c>
       <c r="H3" t="n">
-        <v>6.45643949686982</v>
+        <v>6.456439496869846</v>
       </c>
       <c r="I3" t="n">
-        <v>23.01682563598006</v>
+        <v>23.01682563598015</v>
       </c>
       <c r="J3" t="n">
-        <v>63.15992879294858</v>
+        <v>63.15992879294885</v>
       </c>
       <c r="K3" t="n">
-        <v>107.9503782725959</v>
+        <v>107.9503782725963</v>
       </c>
       <c r="L3" t="n">
-        <v>145.1526054916169</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M3" t="n">
-        <v>149.0100796637291</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>138.2177578250441</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4722901861552</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>127.6568859285732</v>
+        <v>127.6568859285737</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.33524755535841</v>
+        <v>85.33524755535876</v>
       </c>
       <c r="R3" t="n">
-        <v>41.50652021693423</v>
+        <v>41.5065202169344</v>
       </c>
       <c r="S3" t="n">
-        <v>12.41735752463381</v>
+        <v>12.41735752463387</v>
       </c>
       <c r="T3" t="n">
-        <v>2.694581243244033</v>
+        <v>2.694581243244044</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04398119548276445</v>
+        <v>0.04398119548276463</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5604598244033149</v>
+        <v>0.5604598244033173</v>
       </c>
       <c r="H4" t="n">
-        <v>4.982997347876749</v>
+        <v>4.98299734787677</v>
       </c>
       <c r="I4" t="n">
-        <v>16.85455544660151</v>
+        <v>16.85455544660158</v>
       </c>
       <c r="J4" t="n">
-        <v>39.62450958531436</v>
+        <v>39.62450958531453</v>
       </c>
       <c r="K4" t="n">
-        <v>65.11524141703967</v>
+        <v>65.11524141703994</v>
       </c>
       <c r="L4" t="n">
-        <v>83.32509062083467</v>
+        <v>83.32509062083503</v>
       </c>
       <c r="M4" t="n">
-        <v>87.85462501987598</v>
+        <v>87.85462501987635</v>
       </c>
       <c r="N4" t="n">
-        <v>85.76563840164552</v>
+        <v>85.76563840164587</v>
       </c>
       <c r="O4" t="n">
-        <v>79.21844863475222</v>
+        <v>79.21844863475255</v>
       </c>
       <c r="P4" t="n">
-        <v>67.78506821692453</v>
+        <v>67.78506821692483</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.93086765980849</v>
+        <v>46.93086765980869</v>
       </c>
       <c r="R4" t="n">
-        <v>25.20031174089814</v>
+        <v>25.20031174089824</v>
       </c>
       <c r="S4" t="n">
-        <v>9.767286212555948</v>
+        <v>9.767286212555989</v>
       </c>
       <c r="T4" t="n">
-        <v>2.394691976995981</v>
+        <v>2.394691976995992</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03057053587654449</v>
+        <v>0.03057053587654461</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31373,10 +31373,10 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N6" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
         <v>149.4722901861559</v>
@@ -31613,10 +31613,10 @@
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.13809574250692</v>
+        <v>5.138095742506921</v>
       </c>
       <c r="H11" t="n">
-        <v>52.620523022949</v>
+        <v>52.62052302294901</v>
       </c>
       <c r="I11" t="n">
         <v>198.0864361129982</v>
       </c>
       <c r="J11" t="n">
-        <v>436.089453525597</v>
+        <v>436.0894535255972</v>
       </c>
       <c r="K11" t="n">
-        <v>653.5850463059151</v>
+        <v>653.5850463059152</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8300438856613</v>
+        <v>810.8300438856616</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2046540464688</v>
+        <v>902.2046540464689</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8032685748666</v>
+        <v>916.8032685748668</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7113290353134</v>
+        <v>865.7113290353135</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8645903921737</v>
+        <v>738.8645903921738</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8565366136445</v>
+        <v>554.8565366136446</v>
       </c>
       <c r="R11" t="n">
         <v>322.7559066852506</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0843567323765</v>
+        <v>117.0843567323766</v>
       </c>
       <c r="T11" t="n">
-        <v>22.49201411282405</v>
+        <v>22.49201411282406</v>
       </c>
       <c r="U11" t="n">
         <v>0.4110476594005535</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.749123585247926</v>
+        <v>2.749123585247927</v>
       </c>
       <c r="H12" t="n">
         <v>26.55074620489445</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65184273770274</v>
+        <v>94.65184273770275</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>259.731891008007</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>443.923171219618</v>
       </c>
       <c r="L12" t="n">
-        <v>382.67311913749</v>
+        <v>596.9094872267483</v>
       </c>
       <c r="M12" t="n">
-        <v>696.5652171919854</v>
+        <v>529.8357333346582</v>
       </c>
       <c r="N12" t="n">
-        <v>715.0012257965648</v>
+        <v>715.0012257965649</v>
       </c>
       <c r="O12" t="n">
-        <v>654.0864347760712</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>524.9620291865098</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9232141449809</v>
+        <v>350.923214144981</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.6868134770599</v>
       </c>
       <c r="S12" t="n">
-        <v>51.06376484002175</v>
+        <v>51.06376484002176</v>
       </c>
       <c r="T12" t="n">
         <v>11.08089725808265</v>
@@ -31914,7 +31914,7 @@
         <v>20.49152601635621</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31080578947476</v>
+        <v>69.31080578947477</v>
       </c>
       <c r="J13" t="n">
         <v>162.9474415431515</v>
@@ -31923,16 +31923,16 @@
         <v>267.7727019315257</v>
       </c>
       <c r="L13" t="n">
-        <v>342.65686755776</v>
+        <v>342.6568675577601</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2836228016665</v>
+        <v>361.2836228016666</v>
       </c>
       <c r="N13" t="n">
         <v>352.6931057600451</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7691682027671</v>
+        <v>325.7691682027672</v>
       </c>
       <c r="P13" t="n">
         <v>278.75180176033</v>
@@ -31941,13 +31941,13 @@
         <v>192.9932987082382</v>
       </c>
       <c r="R13" t="n">
-        <v>103.6309689947829</v>
+        <v>103.630968994783</v>
       </c>
       <c r="S13" t="n">
         <v>40.16590528972885</v>
       </c>
       <c r="T13" t="n">
-        <v>9.84766587698099</v>
+        <v>9.847665876980992</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257148835359277</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.13809574250692</v>
+        <v>5.138095742506921</v>
       </c>
       <c r="H14" t="n">
-        <v>52.620523022949</v>
+        <v>52.62052302294901</v>
       </c>
       <c r="I14" t="n">
         <v>198.0864361129982</v>
       </c>
       <c r="J14" t="n">
-        <v>436.089453525597</v>
+        <v>436.0894535255972</v>
       </c>
       <c r="K14" t="n">
-        <v>653.5850463059151</v>
+        <v>653.5850463059152</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8300438856613</v>
+        <v>810.8300438856616</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2046540464688</v>
+        <v>902.2046540464689</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8032685748666</v>
+        <v>916.8032685748668</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7113290353134</v>
+        <v>865.7113290353135</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8645903921737</v>
+        <v>738.8645903921738</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8565366136445</v>
+        <v>554.8565366136446</v>
       </c>
       <c r="R14" t="n">
         <v>322.7559066852506</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0843567323765</v>
+        <v>117.0843567323766</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49201411282405</v>
+        <v>22.49201411282406</v>
       </c>
       <c r="U14" t="n">
         <v>0.4110476594005535</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749123585247926</v>
+        <v>2.749123585247927</v>
       </c>
       <c r="H15" t="n">
         <v>26.55074620489445</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65184273770274</v>
+        <v>94.65184273770275</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7318910080069</v>
+        <v>259.731891008007</v>
       </c>
       <c r="K15" t="n">
-        <v>443.923171219618</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9094872267482</v>
+        <v>460.7202948551089</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5652171919854</v>
+        <v>696.5652171919855</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0012257965648</v>
+        <v>715.0012257965649</v>
       </c>
       <c r="O15" t="n">
-        <v>602.8031319313527</v>
+        <v>654.0864347760713</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9620291865098</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06376484002175</v>
+        <v>51.06376484002176</v>
       </c>
       <c r="T15" t="n">
         <v>11.08089725808265</v>
@@ -32151,7 +32151,7 @@
         <v>20.49152601635621</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31080578947476</v>
+        <v>69.31080578947477</v>
       </c>
       <c r="J16" t="n">
         <v>162.9474415431515</v>
@@ -32160,16 +32160,16 @@
         <v>267.7727019315257</v>
       </c>
       <c r="L16" t="n">
-        <v>342.65686755776</v>
+        <v>342.6568675577601</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2836228016665</v>
+        <v>361.2836228016666</v>
       </c>
       <c r="N16" t="n">
         <v>352.6931057600451</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7691682027671</v>
+        <v>325.7691682027672</v>
       </c>
       <c r="P16" t="n">
         <v>278.75180176033</v>
@@ -32178,13 +32178,13 @@
         <v>192.9932987082382</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6309689947829</v>
+        <v>103.630968994783</v>
       </c>
       <c r="S16" t="n">
         <v>40.16590528972885</v>
       </c>
       <c r="T16" t="n">
-        <v>9.84766587698099</v>
+        <v>9.847665876980992</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257148835359277</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138095742506917</v>
+        <v>5.138095742506921</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62052302294898</v>
+        <v>52.62052302294901</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0864361129981</v>
+        <v>198.0864361129982</v>
       </c>
       <c r="J17" t="n">
-        <v>436.0894535255969</v>
+        <v>436.0894535255972</v>
       </c>
       <c r="K17" t="n">
-        <v>653.5850463059148</v>
+        <v>653.5850463059152</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8300438856611</v>
+        <v>810.8300438856616</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2046540464685</v>
+        <v>902.2046540464689</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8032685748664</v>
+        <v>916.8032685748668</v>
       </c>
       <c r="O17" t="n">
-        <v>865.711329035313</v>
+        <v>865.7113290353135</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8645903921735</v>
+        <v>738.8645903921738</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8565366136443</v>
+        <v>554.8565366136446</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7559066852505</v>
+        <v>322.7559066852506</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0843567323765</v>
+        <v>117.0843567323766</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49201411282404</v>
+        <v>22.49201411282406</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110476594005533</v>
+        <v>0.4110476594005535</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749123585247925</v>
+        <v>2.749123585247927</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55074620489444</v>
+        <v>26.55074620489445</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65184273770269</v>
+        <v>94.65184273770275</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.731891008007</v>
       </c>
       <c r="K18" t="n">
-        <v>381.9601783319757</v>
+        <v>320.1346803006313</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9094872267483</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5652171919851</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0012257965645</v>
+        <v>715.0012257965649</v>
       </c>
       <c r="O18" t="n">
-        <v>654.086434776071</v>
+        <v>654.0864347760713</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9620291865095</v>
+        <v>524.9620291865098</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9232141449808</v>
+        <v>350.923214144981</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6868134770599</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06376484002173</v>
+        <v>51.06376484002176</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08089725808264</v>
+        <v>11.08089725808265</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808633937663109</v>
+        <v>0.180863393766311</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304772864825338</v>
+        <v>2.304772864825339</v>
       </c>
       <c r="H19" t="n">
-        <v>20.4915260163562</v>
+        <v>20.49152601635621</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31080578947473</v>
+        <v>69.31080578947477</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9474415431514</v>
+        <v>162.9474415431515</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7727019315256</v>
+        <v>267.7727019315257</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6568675577599</v>
+        <v>342.6568675577601</v>
       </c>
       <c r="M19" t="n">
-        <v>361.2836228016664</v>
+        <v>361.2836228016666</v>
       </c>
       <c r="N19" t="n">
-        <v>352.6931057600449</v>
+        <v>352.6931057600451</v>
       </c>
       <c r="O19" t="n">
-        <v>325.769168202767</v>
+        <v>325.7691682027672</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7518017603299</v>
+        <v>278.75180176033</v>
       </c>
       <c r="Q19" t="n">
-        <v>192.9932987082381</v>
+        <v>192.9932987082382</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6309689947829</v>
+        <v>103.630968994783</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16590528972883</v>
+        <v>40.16590528972885</v>
       </c>
       <c r="T19" t="n">
-        <v>9.847665876980988</v>
+        <v>9.847665876980992</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257148835359277</v>
@@ -32549,16 +32549,16 @@
         <v>94.65184273770274</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7318910080069</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>382.67311913749</v>
+        <v>596.9094872267482</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5652171919854</v>
+        <v>324.4272752482909</v>
       </c>
       <c r="N21" t="n">
         <v>715.0012257965648</v>
@@ -32573,7 +32573,7 @@
         <v>350.9232141449809</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6868134770599</v>
       </c>
       <c r="S21" t="n">
         <v>51.06376484002175</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.923171219618</v>
       </c>
       <c r="L24" t="n">
-        <v>382.6731191374899</v>
+        <v>596.9094872267482</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5652171919854</v>
+        <v>567.2347386296478</v>
       </c>
       <c r="N24" t="n">
         <v>715.0012257965648</v>
@@ -32804,7 +32804,7 @@
         <v>654.0864347760712</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9620291865098</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>350.9232141449809</v>
@@ -33032,22 +33032,22 @@
         <v>596.9094872267482</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5652171919854</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0012257965648</v>
+        <v>591.2127348775783</v>
       </c>
       <c r="O27" t="n">
-        <v>602.8031319313527</v>
+        <v>654.0864347760712</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9620291865098</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9232141449809</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6868134770599</v>
       </c>
       <c r="S27" t="n">
         <v>51.06376484002175</v>
@@ -33260,22 +33260,22 @@
         <v>94.65184273770274</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7318910080069</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.923171219618</v>
       </c>
       <c r="L30" t="n">
-        <v>382.67311913749</v>
+        <v>596.9094872267482</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5652171919854</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>715.0012257965648</v>
       </c>
       <c r="O30" t="n">
-        <v>654.0864347760712</v>
+        <v>530.297943857085</v>
       </c>
       <c r="P30" t="n">
         <v>524.9620291865098</v>
@@ -33284,7 +33284,7 @@
         <v>350.9232141449809</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6868134770599</v>
       </c>
       <c r="S30" t="n">
         <v>51.06376484002175</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.923171219618</v>
       </c>
       <c r="L33" t="n">
         <v>596.9094872267482</v>
       </c>
       <c r="M33" t="n">
-        <v>457.3215395896311</v>
+        <v>696.5652171919854</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0012257965648</v>
+        <v>681.1660062805784</v>
       </c>
       <c r="O33" t="n">
-        <v>654.0864347760712</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>524.9620291865098</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>382.6731191374899</v>
+        <v>596.9094872267482</v>
       </c>
       <c r="M36" t="n">
         <v>696.5652171919854</v>
@@ -33752,13 +33752,13 @@
         <v>654.0864347760712</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9620291865098</v>
+        <v>285.7183515841556</v>
       </c>
       <c r="Q36" t="n">
         <v>350.9232141449809</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.6868134770599</v>
       </c>
       <c r="S36" t="n">
         <v>51.06376484002175</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.923171219618</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9094872267482</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>696.5652171919854</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0012257965648</v>
+        <v>628.0309233958255</v>
       </c>
       <c r="O39" t="n">
         <v>654.0864347760712</v>
       </c>
       <c r="P39" t="n">
-        <v>310.7256610972516</v>
+        <v>524.9620291865098</v>
       </c>
       <c r="Q39" t="n">
         <v>350.9232141449809</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.6868134770599</v>
       </c>
       <c r="S39" t="n">
         <v>51.06376484002175</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.923171219618</v>
       </c>
       <c r="L42" t="n">
         <v>596.9094872267482</v>
@@ -34220,19 +34220,19 @@
         <v>696.5652171919854</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0012257965648</v>
+        <v>681.1660062805784</v>
       </c>
       <c r="O42" t="n">
-        <v>654.0864347760712</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>521.6671011562109</v>
+        <v>524.9620291865098</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9232141449809</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6868134770599</v>
       </c>
       <c r="S42" t="n">
         <v>51.06376484002175</v>
@@ -34445,16 +34445,16 @@
         <v>94.65184273770271</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7318910080069</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9094872267481</v>
+        <v>224.7715452830546</v>
       </c>
       <c r="M45" t="n">
-        <v>457.3215395896318</v>
+        <v>696.5652171919852</v>
       </c>
       <c r="N45" t="n">
         <v>715.0012257965647</v>
@@ -34702,22 +34702,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.598225711742695</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.598225711742714</v>
+        <v>6.598225711743311</v>
       </c>
       <c r="M3" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.87604574171081</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M4" t="n">
-        <v>6.87604574171081</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.598225711742695</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.87604574171081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.598225711743296</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O5" t="n">
-        <v>6.876045741711437</v>
+        <v>2.035939104100421</v>
       </c>
       <c r="P5" t="n">
         <v>6.876045741711437</v>
@@ -35021,10 +35021,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="O6" t="n">
         <v>6.876045741711437</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
         <v>6.598225711743296</v>
       </c>
       <c r="M7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.417872862493068</v>
+      </c>
+      <c r="L8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>6.876045741711437</v>
+        <v>2.180352849250227</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35346,7 +35346,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0435489989108</v>
+        <v>255.0435489989109</v>
       </c>
       <c r="K11" t="n">
-        <v>433.4951952609345</v>
+        <v>433.4951952609346</v>
       </c>
       <c r="L11" t="n">
-        <v>575.0636289156741</v>
+        <v>575.0636289156744</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8584208191961</v>
+        <v>671.8584208191962</v>
       </c>
       <c r="N11" t="n">
-        <v>687.3902049782757</v>
+        <v>687.390204978276</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6131176136266</v>
+        <v>635.6131176136267</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6315946369041</v>
+        <v>507.6315946369043</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.550846739195</v>
+        <v>332.5508467391951</v>
       </c>
       <c r="R11" t="n">
         <v>107.1703688711185</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>132.8942643413403</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>306.081732245259</v>
       </c>
       <c r="L12" t="n">
-        <v>244.1187393576158</v>
+        <v>458.3551074468741</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4311832699671</v>
+        <v>387.70169941264</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6595137132315</v>
+        <v>583.6595137132316</v>
       </c>
       <c r="O12" t="n">
-        <v>511.4901903316268</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>390.9876217721795</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9414400589594</v>
+        <v>210.9414400589595</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.00730951309598</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>277.1181883021047</v>
       </c>
       <c r="L13" t="n">
-        <v>401.8618710145381</v>
+        <v>401.861871014538</v>
       </c>
       <c r="M13" t="n">
-        <v>432.4824779599689</v>
+        <v>432.4824779599691</v>
       </c>
       <c r="N13" t="n">
-        <v>428.4402563357356</v>
+        <v>428.4402563357355</v>
       </c>
       <c r="O13" t="n">
         <v>381.9692743132687</v>
       </c>
       <c r="P13" t="n">
-        <v>307.6453392216853</v>
+        <v>307.6453392216854</v>
       </c>
       <c r="Q13" t="n">
         <v>138.4462336530057</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0435489989108</v>
+        <v>255.0435489989109</v>
       </c>
       <c r="K14" t="n">
-        <v>433.4951952609345</v>
+        <v>433.4951952609346</v>
       </c>
       <c r="L14" t="n">
-        <v>575.0636289156741</v>
+        <v>575.0636289156744</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8584208191961</v>
+        <v>671.8584208191962</v>
       </c>
       <c r="N14" t="n">
-        <v>687.3902049782757</v>
+        <v>687.390204978276</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6131176136266</v>
+        <v>635.6131176136267</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6315946369041</v>
+        <v>507.6315946369043</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.550846739195</v>
+        <v>332.5508467391951</v>
       </c>
       <c r="R14" t="n">
         <v>107.1703688711185</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.8942643413402</v>
+        <v>132.8942643413403</v>
       </c>
       <c r="K15" t="n">
-        <v>306.081732245259</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>458.355107446874</v>
+        <v>322.1659150752347</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4311832699671</v>
+        <v>554.4311832699673</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6595137132315</v>
+        <v>583.6595137132316</v>
       </c>
       <c r="O15" t="n">
-        <v>460.2068874869083</v>
+        <v>511.4901903316269</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>390.9876217721795</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>401.8618710145381</v>
       </c>
       <c r="M16" t="n">
-        <v>432.4824779599689</v>
+        <v>432.4824779599691</v>
       </c>
       <c r="N16" t="n">
         <v>428.4402563357356</v>
@@ -35820,7 +35820,7 @@
         <v>381.9692743132687</v>
       </c>
       <c r="P16" t="n">
-        <v>307.6453392216853</v>
+        <v>307.6453392216854</v>
       </c>
       <c r="Q16" t="n">
         <v>138.4462336530057</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0435489989106</v>
+        <v>255.0435489989109</v>
       </c>
       <c r="K17" t="n">
-        <v>433.4951952609343</v>
+        <v>433.4951952609346</v>
       </c>
       <c r="L17" t="n">
-        <v>575.0636289156739</v>
+        <v>575.0636289156744</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8584208191958</v>
+        <v>671.8584208191962</v>
       </c>
       <c r="N17" t="n">
-        <v>687.3902049782755</v>
+        <v>687.390204978276</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6131176136263</v>
+        <v>635.6131176136267</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6315946369039</v>
+        <v>507.6315946369043</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5508467391948</v>
+        <v>332.5508467391951</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1703688711183</v>
+        <v>107.1703688711185</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.8942643413403</v>
       </c>
       <c r="K18" t="n">
-        <v>244.1187393576167</v>
+        <v>182.2932413262723</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>458.3551074468741</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4311832699668</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6595137132313</v>
+        <v>583.6595137132316</v>
       </c>
       <c r="O18" t="n">
-        <v>511.4901903316265</v>
+        <v>511.4901903316269</v>
       </c>
       <c r="P18" t="n">
-        <v>390.9876217721793</v>
+        <v>390.9876217721795</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9414400589592</v>
+        <v>210.9414400589595</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.00730951309598</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2032396229405</v>
+        <v>101.2032396229406</v>
       </c>
       <c r="K19" t="n">
         <v>277.1181883021047</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8618710145379</v>
+        <v>401.8618710145381</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4824779599688</v>
+        <v>432.4824779599691</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4402563357355</v>
+        <v>428.4402563357356</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9692743132686</v>
+        <v>381.9692743132687</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6453392216853</v>
+        <v>307.6453392216854</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4462336530052</v>
+        <v>138.4462336530057</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.8942643413402</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>244.1187393576158</v>
+        <v>458.355107446874</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4311832699671</v>
+        <v>182.2932413262726</v>
       </c>
       <c r="N21" t="n">
         <v>583.6595137132315</v>
@@ -36221,7 +36221,7 @@
         <v>210.9414400589594</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.00730951309595</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2032396229406</v>
+        <v>101.2032396229399</v>
       </c>
       <c r="K22" t="n">
         <v>277.1181883021047</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8618710145381</v>
+        <v>401.861871014538</v>
       </c>
       <c r="M22" t="n">
         <v>432.4824779599689</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4402563357356</v>
+        <v>428.4402563357355</v>
       </c>
       <c r="O22" t="n">
         <v>381.9692743132687</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.081732245259</v>
       </c>
       <c r="L24" t="n">
-        <v>244.1187393576158</v>
+        <v>458.355107446874</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4311832699671</v>
+        <v>425.1007047076296</v>
       </c>
       <c r="N24" t="n">
         <v>583.6595137132315</v>
@@ -36452,7 +36452,7 @@
         <v>511.4901903316268</v>
       </c>
       <c r="P24" t="n">
-        <v>390.9876217721795</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9414400589594</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2032396229406</v>
+        <v>101.2032396229405</v>
       </c>
       <c r="K25" t="n">
         <v>277.1181883021047</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8618710145381</v>
+        <v>401.861871014538</v>
       </c>
       <c r="M25" t="n">
         <v>432.4824779599689</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4402563357356</v>
+        <v>428.4402563357355</v>
       </c>
       <c r="O25" t="n">
         <v>381.9692743132687</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6453392216843</v>
+        <v>307.6453392216853</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4462336530057</v>
@@ -36680,22 +36680,22 @@
         <v>458.355107446874</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4311832699671</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6595137132315</v>
+        <v>459.8710227942451</v>
       </c>
       <c r="O27" t="n">
-        <v>460.2068874869083</v>
+        <v>511.4901903316268</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>390.9876217721795</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.9414400589594</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.00730951309595</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2032396229405</v>
+        <v>101.2032396229406</v>
       </c>
       <c r="K28" t="n">
         <v>277.1181883021047</v>
       </c>
       <c r="L28" t="n">
-        <v>401.861871014538</v>
+        <v>401.8618710145381</v>
       </c>
       <c r="M28" t="n">
         <v>432.4824779599689</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4402563357355</v>
+        <v>428.4402563357356</v>
       </c>
       <c r="O28" t="n">
         <v>381.9692743132687</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.8942643413402</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.081732245259</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1187393576158</v>
+        <v>458.355107446874</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4311832699671</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>583.6595137132315</v>
       </c>
       <c r="O30" t="n">
-        <v>511.4901903316268</v>
+        <v>387.7016994126406</v>
       </c>
       <c r="P30" t="n">
         <v>390.9876217721795</v>
@@ -36932,7 +36932,7 @@
         <v>210.9414400589594</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.00730951309595</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.081732245259</v>
       </c>
       <c r="L33" t="n">
         <v>458.355107446874</v>
       </c>
       <c r="M33" t="n">
-        <v>315.1875056676128</v>
+        <v>554.4311832699671</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6595137132315</v>
+        <v>549.8242941972451</v>
       </c>
       <c r="O33" t="n">
-        <v>511.4901903316268</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>390.9876217721795</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2032396229399</v>
+        <v>101.2032396229406</v>
       </c>
       <c r="K34" t="n">
         <v>277.1181883021047</v>
       </c>
       <c r="L34" t="n">
-        <v>401.861871014538</v>
+        <v>401.8618710145381</v>
       </c>
       <c r="M34" t="n">
         <v>432.4824779599689</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4402563357355</v>
+        <v>428.4402563357356</v>
       </c>
       <c r="O34" t="n">
         <v>381.9692743132687</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>244.1187393576158</v>
+        <v>458.355107446874</v>
       </c>
       <c r="M36" t="n">
         <v>554.4311832699671</v>
@@ -37400,13 +37400,13 @@
         <v>511.4901903316268</v>
       </c>
       <c r="P36" t="n">
-        <v>390.9876217721795</v>
+        <v>151.7439441698254</v>
       </c>
       <c r="Q36" t="n">
         <v>210.9414400589594</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.00730951309595</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>635.6131176136266</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6315946369041</v>
+        <v>507.6315946369045</v>
       </c>
       <c r="Q38" t="n">
         <v>332.550846739195</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.081732245259</v>
       </c>
       <c r="L39" t="n">
-        <v>458.355107446874</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>554.4311832699671</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6595137132315</v>
+        <v>496.6892113124923</v>
       </c>
       <c r="O39" t="n">
         <v>511.4901903316268</v>
       </c>
       <c r="P39" t="n">
-        <v>176.7512536829213</v>
+        <v>390.9876217721795</v>
       </c>
       <c r="Q39" t="n">
         <v>210.9414400589594</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.00730951309595</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>101.2032396229406</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1181883021047</v>
+        <v>277.118188302104</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8618710145381</v>
+        <v>401.861871014538</v>
       </c>
       <c r="M40" t="n">
         <v>432.4824779599689</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4402563357356</v>
+        <v>428.4402563357355</v>
       </c>
       <c r="O40" t="n">
         <v>381.9692743132687</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.081732245259</v>
       </c>
       <c r="L42" t="n">
         <v>458.355107446874</v>
@@ -37868,19 +37868,19 @@
         <v>554.4311832699671</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6595137132315</v>
+        <v>549.8242941972451</v>
       </c>
       <c r="O42" t="n">
-        <v>511.4901903316268</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>387.6926937418807</v>
+        <v>390.9876217721795</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.9414400589594</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.00730951309595</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.8942643413402</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3551074468739</v>
+        <v>86.21716550318038</v>
       </c>
       <c r="M45" t="n">
-        <v>315.1875056676135</v>
+        <v>554.4311832699668</v>
       </c>
       <c r="N45" t="n">
         <v>583.6595137132314</v>
